--- a/data/iartypre15.xlsx
+++ b/data/iartypre15.xlsx
@@ -56,114 +56,114 @@
   <sheetData>
     <row r="11">
       <c r="A11">
-        <v>0.70508741614906834</v>
+        <v>0.94940839339633243</v>
       </c>
       <c r="B11">
-        <v>0.74354781282272753</v>
+        <v>0.93125379999246527</v>
       </c>
       <c r="C11">
-        <v>0.29491258385093166</v>
+        <v>0.050591606603667585</v>
       </c>
       <c r="D11">
-        <v>0.25645218717727247</v>
+        <v>0.068746200007534813</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.022684990666137692</v>
+        <v>0.0044646105448452773</v>
       </c>
       <c r="B12">
-        <v>0.01698638432273639</v>
+        <v>0.0050525198269638456</v>
       </c>
       <c r="C12">
-        <v>0.022684990666137692</v>
+        <v>0.0044646105448452773</v>
       </c>
       <c r="D12">
-        <v>0.01698638432273639</v>
+        <v>0.0050525198269638456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>31.081670983517988</v>
+        <v>212.65200712579389</v>
       </c>
       <c r="B13">
-        <v>43.773165536322161</v>
+        <v>184.31472451085327</v>
       </c>
       <c r="C13">
-        <v>13.00033966031792</v>
+        <v>11.331695361889814</v>
       </c>
       <c r="D13">
-        <v>15.097514709708381</v>
+        <v>13.606319690356505</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>4.5583108752164316e-151</v>
+        <v>0</v>
       </c>
       <c r="B14">
-        <v>2.3566880311631867e-239</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>6.015088920265439e-36</v>
+        <v>2.0381290968189941e-29</v>
       </c>
       <c r="D14">
-        <v>9.0191727479590196e-47</v>
+        <v>1.9065588798556896e-41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.66057453621569817</v>
+        <v>0.94065585488350223</v>
       </c>
       <c r="B15">
-        <v>0.71021683654030343</v>
+        <v>0.92134870884775222</v>
       </c>
       <c r="C15">
-        <v>0.2503997039175615</v>
+        <v>0.041839068090837338</v>
       </c>
       <c r="D15">
-        <v>0.22312121089484843</v>
+        <v>0.058841108862821755</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.7496002960824385</v>
+        <v>0.95816093190916263</v>
       </c>
       <c r="B16">
-        <v>0.77687878910515162</v>
+        <v>0.94115889113717832</v>
       </c>
       <c r="C16">
-        <v>0.33942546378430183</v>
+        <v>0.059344145116497833</v>
       </c>
       <c r="D16">
-        <v>0.28978316345969651</v>
+        <v>0.078651291152247865</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B17">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C17">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D17">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B18">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C18">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D18">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="19">
@@ -182,114 +182,114 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.4680430020703934</v>
+        <v>0.90953709402448679</v>
       </c>
       <c r="B21">
-        <v>0.38612422321244844</v>
+        <v>0.83554854446653726</v>
       </c>
       <c r="C21">
-        <v>0.5319569979296066</v>
+        <v>0.090462905975513042</v>
       </c>
       <c r="D21">
-        <v>0.61387577678755145</v>
+        <v>0.16445145553346263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.024792918357636268</v>
+        <v>0.0057579420067052408</v>
       </c>
       <c r="B22">
-        <v>0.018800931033225231</v>
+        <v>0.0070828047120610081</v>
       </c>
       <c r="C22">
-        <v>0.024792918357636268</v>
+        <v>0.0057579420067052408</v>
       </c>
       <c r="D22">
-        <v>0.018800931033225231</v>
+        <v>0.0070828047120610081</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>18.878092337453094</v>
+        <v>157.96218387842606</v>
       </c>
       <c r="B23">
-        <v>20.537505431517463</v>
+        <v>117.9685983779444</v>
       </c>
       <c r="C23">
-        <v>21.456005713250889</v>
+        <v>15.710979004332996</v>
       </c>
       <c r="D23">
-        <v>32.651349856169503</v>
+        <v>23.218408839287243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1.0576512114397175e-68</v>
+        <v>0</v>
       </c>
       <c r="B24">
-        <v>4.1926520100543222e-79</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>5.0605401527833357e-85</v>
+        <v>2.3057538231408142e-54</v>
       </c>
       <c r="D24">
-        <v>3.8468532232018786e-162</v>
+        <v>1.7341225363200099e-113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.41939391006531346</v>
+        <v>0.89824907491013928</v>
       </c>
       <c r="B25">
-        <v>0.34923271207919682</v>
+        <v>0.82166323008167019</v>
       </c>
       <c r="C25">
-        <v>0.48330790592452666</v>
+        <v>0.079174886861165583</v>
       </c>
       <c r="D25">
-        <v>0.57698426565429983</v>
+        <v>0.15056614114859551</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.51669209407547334</v>
+        <v>0.92082511313883431</v>
       </c>
       <c r="B26">
-        <v>0.42301573434570006</v>
+        <v>0.84943385885140432</v>
       </c>
       <c r="C26">
-        <v>0.58060608993468654</v>
+        <v>0.1017509250898605</v>
       </c>
       <c r="D26">
-        <v>0.65076728792080307</v>
+        <v>0.17833676991832975</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B27">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C27">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D27">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B28">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C28">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D28">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="29">
@@ -308,44 +308,44 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.97273907522429259</v>
+        <v>0.99541620973089839</v>
       </c>
       <c r="B31">
-        <v>0.98953589874750292</v>
+        <v>0.99722100717136786</v>
       </c>
       <c r="C31">
-        <v>0.027260924775707386</v>
+        <v>0.0045837902691015448</v>
       </c>
       <c r="D31">
-        <v>0.010464101252497157</v>
+        <v>0.0027789928286320043</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.0081178358757867473</v>
+        <v>0.0013830164195614734</v>
       </c>
       <c r="B32">
-        <v>0.0039355484844919558</v>
+        <v>0.0010519889333524765</v>
       </c>
       <c r="C32">
-        <v>0.0081178358757867473</v>
+        <v>0.0013830164195614734</v>
       </c>
       <c r="D32">
-        <v>0.0039355484844919558</v>
+        <v>0.0010519889333524765</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>119.82738874109336</v>
+        <v>719.74287192231952</v>
       </c>
       <c r="B33">
-        <v>251.43532156871476</v>
+        <v>947.93868600254734</v>
       </c>
       <c r="C33">
-        <v>3.3581517528605329</v>
+        <v>3.3143426240412763</v>
       </c>
       <c r="D33">
-        <v>2.6588673202047919</v>
+        <v>2.6416559533339528</v>
       </c>
     </row>
     <row r="34">
@@ -356,66 +356,66 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>0.00081271594698223339</v>
+        <v>0.00092495455833639119</v>
       </c>
       <c r="D34">
-        <v>0.007959197976277815</v>
+        <v>0.0082751848374926929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.95681011766042234</v>
+        <v>0.99270490840808434</v>
       </c>
       <c r="B35">
-        <v>0.98181349763478631</v>
+        <v>0.99515866073336345</v>
       </c>
       <c r="C35">
-        <v>0.011331967211837123</v>
+        <v>0.0018724889462875308</v>
       </c>
       <c r="D35">
-        <v>0.0027417001397805601</v>
+        <v>0.00071664639062755378</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.98866803278816284</v>
+        <v>0.99812751105371245</v>
       </c>
       <c r="B36">
-        <v>0.99725829986021952</v>
+        <v>0.99928335360937226</v>
       </c>
       <c r="C36">
-        <v>0.04318988233957765</v>
+        <v>0.0072950915919155583</v>
       </c>
       <c r="D36">
-        <v>0.018186502365213755</v>
+        <v>0.0048413392666364543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B37">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C37">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D37">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B38">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C38">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D38">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="39">
@@ -434,114 +434,114 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.85413050655624567</v>
+        <v>0.97510720936693729</v>
       </c>
       <c r="B41">
-        <v>0.88079206521732112</v>
+        <v>0.96805062034373768</v>
       </c>
       <c r="C41">
-        <v>0.14586949344375433</v>
+        <v>0.024892790633062611</v>
       </c>
       <c r="D41">
-        <v>0.11920793478267881</v>
+        <v>0.031949379656262225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.017335895820144498</v>
+        <v>0.0031729474491851459</v>
       </c>
       <c r="B42">
-        <v>0.012559927772165401</v>
+        <v>0.0035288224902975032</v>
       </c>
       <c r="C42">
-        <v>0.017335895820144498</v>
+        <v>0.0031729474491851459</v>
       </c>
       <c r="D42">
-        <v>0.012559927772165401</v>
+        <v>0.0035288224902975032</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>49.269476202304865</v>
+        <v>307.31905428101481</v>
       </c>
       <c r="B43">
-        <v>70.12716005973239</v>
+        <v>274.32681099868091</v>
       </c>
       <c r="C43">
-        <v>8.4143037635385642</v>
+        <v>7.8453208039910658</v>
       </c>
       <c r="D43">
-        <v>9.4911321900163053</v>
+        <v>9.0538358741781533</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>9.8916587210284162e-276</v>
+        <v>0</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1.2741613032310157e-16</v>
+        <v>5.2161287127765301e-15</v>
       </c>
       <c r="D44">
-        <v>1.471640516599392e-20</v>
+        <v>1.9228804577626707e-19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.82011371278557899</v>
+        <v>0.9688868807471781</v>
       </c>
       <c r="B45">
-        <v>0.85614675832157061</v>
+        <v>0.96113262504694053</v>
       </c>
       <c r="C45">
-        <v>0.11185269967308759</v>
+        <v>0.018672462013303477</v>
       </c>
       <c r="D45">
-        <v>0.094562627886928263</v>
+        <v>0.025031384359465107</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.88814730032691236</v>
+        <v>0.98132753798669647</v>
       </c>
       <c r="B46">
-        <v>0.90543737211307163</v>
+        <v>0.97496861564053483</v>
       </c>
       <c r="C46">
-        <v>0.17988628721442107</v>
+        <v>0.031113119252821744</v>
       </c>
       <c r="D46">
-        <v>0.14385324167842936</v>
+        <v>0.038867374953059343</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B47">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C47">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D47">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B48">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C48">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D48">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="49">
@@ -560,162 +560,162 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.72268907563025209</v>
+        <v>0.98508137432188081</v>
       </c>
       <c r="B51">
-        <v>0.70230607966457026</v>
+        <v>0.92231947483588628</v>
       </c>
       <c r="C51">
-        <v>0.75488069414316705</v>
+        <v>0.89717925386715192</v>
       </c>
       <c r="D51">
-        <v>0.27731092436974791</v>
+        <v>0.014918625678119348</v>
       </c>
       <c r="E51">
-        <v>0.2976939203354298</v>
+        <v>0.077680525164113792</v>
       </c>
       <c r="F51">
-        <v>0.24511930585683298</v>
+        <v>0.10282074613284804</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.041037959021249834</v>
+        <v>0.0025775547629596253</v>
       </c>
       <c r="B52">
-        <v>0.020935773309044472</v>
+        <v>0.0062604949597715271</v>
       </c>
       <c r="C52">
-        <v>0.020034451442046641</v>
+        <v>0.009161807037207103</v>
       </c>
       <c r="D52">
-        <v>0.041037959021249834</v>
+        <v>0.0025775547629596253</v>
       </c>
       <c r="E52">
-        <v>0.020935773309044472</v>
+        <v>0.0062604949597715271</v>
       </c>
       <c r="F52">
-        <v>0.020034451442046641</v>
+        <v>0.009161807037207103</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>17.610258718179356</v>
+        <v>382.17670036650588</v>
       </c>
       <c r="B53">
-        <v>33.545743417137913</v>
+        <v>147.32373091305001</v>
       </c>
       <c r="C53">
-        <v>37.679129689515044</v>
+        <v>97.926015056157439</v>
       </c>
       <c r="D53">
-        <v>6.7574248569758</v>
+        <v>5.7878986287722309</v>
       </c>
       <c r="E53">
-        <v>14.219389746965923</v>
+        <v>12.408048511063523</v>
       </c>
       <c r="F53">
-        <v>12.234889812974712</v>
+        <v>11.22275831779492</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>4.7878851140946132e-61</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>1.8856197816822545e-168</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>1.7860920391857538e-197</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>2.3199042616287607e-11</v>
+        <v>7.5498298680697863e-09</v>
       </c>
       <c r="E54">
-        <v>4.1646562737051009e-42</v>
+        <v>7.4341204168874877e-35</v>
       </c>
       <c r="F54">
-        <v>2.7894210640819701e-32</v>
+        <v>6.8218787211279149e-29</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.64216368465664087</v>
+        <v>0.98002826899385154</v>
       </c>
       <c r="B55">
-        <v>0.66122554419805879</v>
+        <v>0.91004623785488126</v>
       </c>
       <c r="C55">
-        <v>0.71556874798918646</v>
+        <v>0.87921820930686911</v>
       </c>
       <c r="D55">
-        <v>0.19678553339613669</v>
+        <v>0.0098655203500901158</v>
       </c>
       <c r="E55">
-        <v>0.25661338486891827</v>
+        <v>0.065407288183108786</v>
       </c>
       <c r="F55">
-        <v>0.20580735970285241</v>
+        <v>0.084859701572565269</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.80321446660386331</v>
+        <v>0.99013447964991008</v>
       </c>
       <c r="B56">
-        <v>0.74338661513108173</v>
+        <v>0.9345927118168913</v>
       </c>
       <c r="C56">
-        <v>0.79419264029714765</v>
+        <v>0.91514029842743472</v>
       </c>
       <c r="D56">
-        <v>0.35783631534335913</v>
+        <v>0.019971731006148581</v>
       </c>
       <c r="E56">
-        <v>0.33877445580194132</v>
+        <v>0.089953762145118799</v>
       </c>
       <c r="F56">
-        <v>0.28443125201081354</v>
+        <v>0.12078179069313082</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B57">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C57">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D57">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E57">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F57">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B58">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C58">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D58">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E58">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F58">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="59">
@@ -740,162 +740,162 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.50420168067226889</v>
+        <v>0.97332730560578662</v>
       </c>
       <c r="B61">
-        <v>0.46540880503144655</v>
+        <v>0.86050328227571116</v>
       </c>
       <c r="C61">
-        <v>0.35357917570498915</v>
+        <v>0.7288444040036397</v>
       </c>
       <c r="D61">
-        <v>0.49579831932773111</v>
+        <v>0.026672694394213381</v>
       </c>
       <c r="E61">
-        <v>0.53459119496855345</v>
+        <v>0.13949671772428884</v>
       </c>
       <c r="F61">
-        <v>0.6464208242950108</v>
+        <v>0.27115559599636035</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.045833306472268721</v>
+        <v>0.003425865723137504</v>
       </c>
       <c r="B62">
-        <v>0.022838575316689886</v>
+        <v>0.0081034538746309025</v>
       </c>
       <c r="C62">
-        <v>0.022266427663533688</v>
+        <v>0.013409971394757195</v>
       </c>
       <c r="D62">
-        <v>0.045833306472268721</v>
+        <v>0.003425865723137504</v>
       </c>
       <c r="E62">
-        <v>0.022838575316689886</v>
+        <v>0.0081034538746309025</v>
       </c>
       <c r="F62">
-        <v>0.022266427663533688</v>
+        <v>0.013409971394757195</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>11.000770389047412</v>
+        <v>284.11134126832798</v>
       </c>
       <c r="B63">
-        <v>20.37818903227895</v>
+        <v>106.18969338119489</v>
       </c>
       <c r="C63">
-        <v>15.879474743227671</v>
+        <v>54.350929062279057</v>
       </c>
       <c r="D63">
-        <v>10.817424215896624</v>
+        <v>7.7856800440461447</v>
       </c>
       <c r="E63">
-        <v>23.407379293833927</v>
+        <v>17.214476676544624</v>
       </c>
       <c r="F63">
-        <v>29.031186953876357</v>
+        <v>20.220445518800449</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>1.0098162046290591e-26</v>
+        <v>0</v>
       </c>
       <c r="B64">
-        <v>4.3457462808475985e-78</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>4.4994462527586535e-51</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>6.183007741219426e-26</v>
+        <v>8.3287163925994403e-15</v>
       </c>
       <c r="E64">
-        <v>6.5444523009427506e-98</v>
+        <v>1.3052323347460108e-64</v>
       </c>
       <c r="F64">
-        <v>1.2143383337820767e-136</v>
+        <v>1.5290796390483078e-87</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.41426677622486002</v>
+        <v>0.96661114943038051</v>
       </c>
       <c r="B65">
-        <v>0.42059455864788675</v>
+        <v>0.8446170607537602</v>
       </c>
       <c r="C65">
-        <v>0.3098876073142891</v>
+        <v>0.70255514765986338</v>
       </c>
       <c r="D65">
-        <v>0.40586341488032224</v>
+        <v>0.019956538218807225</v>
       </c>
       <c r="E65">
-        <v>0.48977694858499365</v>
+        <v>0.12361049620233783</v>
       </c>
       <c r="F65">
-        <v>0.60272925590431081</v>
+        <v>0.24486633965258403</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.59413658511967771</v>
+        <v>0.98004346178119273</v>
       </c>
       <c r="B66">
-        <v>0.51022305141500635</v>
+        <v>0.87638950379766212</v>
       </c>
       <c r="C66">
-        <v>0.39727074409568919</v>
+        <v>0.75513366034741602</v>
       </c>
       <c r="D66">
-        <v>0.58573322377513992</v>
+        <v>0.033388850569619537</v>
       </c>
       <c r="E66">
-        <v>0.57940544135211325</v>
+        <v>0.15538293924623986</v>
       </c>
       <c r="F66">
-        <v>0.69011239268571078</v>
+        <v>0.29744485234013668</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B67">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C67">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D67">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E67">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F67">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B68">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C68">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D68">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E68">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F68">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="69">
@@ -920,62 +920,62 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.96638655462184864</v>
+        <v>0.99819168173598549</v>
       </c>
       <c r="B71">
-        <v>0.9853249475890985</v>
+        <v>0.99617067833698025</v>
       </c>
       <c r="C71">
-        <v>0.98481561822125818</v>
+        <v>0.99363057324840764</v>
       </c>
       <c r="D71">
-        <v>0.033613445378151259</v>
+        <v>0.0018083182640144667</v>
       </c>
       <c r="E71">
-        <v>0.014675052410901468</v>
+        <v>0.0038293216630196935</v>
       </c>
       <c r="F71">
-        <v>0.015184381778741865</v>
+        <v>0.006369426751592357</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.016521842346441974</v>
+        <v>0.0009033412583599736</v>
       </c>
       <c r="B72">
-        <v>0.0055057993529519381</v>
+        <v>0.001444573706667084</v>
       </c>
       <c r="C72">
-        <v>0.0056954174083174896</v>
+        <v>0.0023997378448057526</v>
       </c>
       <c r="D72">
-        <v>0.016521842346441974</v>
+        <v>0.0009033412583599736</v>
       </c>
       <c r="E72">
-        <v>0.0055057993529519381</v>
+        <v>0.001444573706667084</v>
       </c>
       <c r="F72">
-        <v>0.0056954174083174896</v>
+        <v>0.0023997378448057526</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>58.49145236699119</v>
+        <v>1104.9995475112185</v>
       </c>
       <c r="B73">
-        <v>178.96128871111438</v>
+        <v>689.59491214563377</v>
       </c>
       <c r="C73">
-        <v>172.91368614757724</v>
+        <v>414.05796695631864</v>
       </c>
       <c r="D73">
-        <v>2.0344852997214327</v>
+        <v>2.0018107744768452</v>
       </c>
       <c r="E73">
-        <v>2.6653808956974485</v>
+        <v>2.6508316227454345</v>
       </c>
       <c r="F73">
-        <v>2.6660700507335697</v>
+        <v>2.6542177368994788</v>
       </c>
     </row>
     <row r="74">
@@ -989,93 +989,93 @@
         <v>0</v>
       </c>
       <c r="D74">
-        <v>0.042152614823977565</v>
+        <v>0.045357586183336664</v>
       </c>
       <c r="E74">
-        <v>0.0078076833034268827</v>
+        <v>0.0080540236032402967</v>
       </c>
       <c r="F74">
-        <v>0.0077918049662175273</v>
+        <v>0.0079737548442769656</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.93396711061726989</v>
+        <v>0.99642074806224035</v>
       </c>
       <c r="B75">
-        <v>0.9745213731401563</v>
+        <v>0.99333869850912637</v>
       </c>
       <c r="C75">
-        <v>0.97363997195373309</v>
+        <v>0.98892606482681444</v>
       </c>
       <c r="D75">
-        <v>0.0011940013735725133</v>
+        <v>3.7384590269310541e-05</v>
       </c>
       <c r="E75">
-        <v>0.0038714779619593003</v>
+        <v>0.00099734183516580121</v>
       </c>
       <c r="F75">
-        <v>0.0040087355112167974</v>
+        <v>0.0016649183299991127</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.99880599862642738</v>
+        <v>0.99996261540973064</v>
       </c>
       <c r="B76">
-        <v>0.9961285220380407</v>
+        <v>0.99900265816483413</v>
       </c>
       <c r="C76">
-        <v>0.99599126448878328</v>
+        <v>0.99833508167000085</v>
       </c>
       <c r="D76">
-        <v>0.066032889382729998</v>
+        <v>0.0035792519377596229</v>
       </c>
       <c r="E76">
-        <v>0.025478626859843638</v>
+        <v>0.0066613014908735863</v>
       </c>
       <c r="F76">
-        <v>0.026360028046266932</v>
+        <v>0.011073935173185601</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B77">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C77">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D77">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E77">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F77">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B78">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C78">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D78">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E78">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F78">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="79">
@@ -1100,162 +1100,162 @@
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.80672268907563027</v>
+        <v>0.98960216998191686</v>
       </c>
       <c r="B81">
-        <v>0.84696016771488458</v>
+        <v>0.96006564551422324</v>
       </c>
       <c r="C81">
-        <v>0.90672451193058579</v>
+        <v>0.96087352138307547</v>
       </c>
       <c r="D81">
-        <v>0.19327731092436976</v>
+        <v>0.010397830018083183</v>
       </c>
       <c r="E81">
-        <v>0.15303983228511531</v>
+        <v>0.039934354485776806</v>
       </c>
       <c r="F81">
-        <v>0.093275488069414311</v>
+        <v>0.039126478616924476</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.036197542978761411</v>
+        <v>0.0021567962256226108</v>
       </c>
       <c r="B82">
-        <v>0.016484453130417433</v>
+        <v>0.004579686012187994</v>
       </c>
       <c r="C82">
-        <v>0.013544749596702356</v>
+        <v>0.0058488387505317221</v>
       </c>
       <c r="D82">
-        <v>0.036197542978761411</v>
+        <v>0.0021567962256226108</v>
       </c>
       <c r="E82">
-        <v>0.016484453130417433</v>
+        <v>0.004579686012187994</v>
       </c>
       <c r="F82">
-        <v>0.013544749596702356</v>
+        <v>0.0058488387505317221</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>22.286669831401753</v>
+        <v>458.82970223403674</v>
       </c>
       <c r="B83">
-        <v>51.37933063439376</v>
+        <v>209.63569182672887</v>
       </c>
       <c r="C83">
-        <v>66.942877419553</v>
+        <v>164.28449515653372</v>
       </c>
       <c r="D83">
-        <v>5.3395146471066699</v>
+        <v>4.8209607818103448</v>
       </c>
       <c r="E83">
-        <v>9.2838889512642204</v>
+        <v>8.7198891756986932</v>
       </c>
       <c r="F83">
-        <v>6.8864682512937287</v>
+        <v>6.6896148595937035</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>1.8458019085037333e-90</v>
+        <v>0</v>
       </c>
       <c r="B84">
-        <v>2.7470338078861294e-289</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84">
-        <v>1.1412032884629541e-07</v>
+        <v>1.4698936315699909e-06</v>
       </c>
       <c r="E84">
-        <v>9.0399039525792647e-20</v>
+        <v>3.706672926380887e-18</v>
       </c>
       <c r="F84">
-        <v>9.8122637795534211e-12</v>
+        <v>2.4759219161946527e-11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.73569524594329672</v>
+        <v>0.98537393062274492</v>
       </c>
       <c r="B85">
-        <v>0.81461408947484137</v>
+        <v>0.95108751006529246</v>
       </c>
       <c r="C85">
-        <v>0.8801467706654964</v>
+        <v>0.94940730593042688</v>
       </c>
       <c r="D85">
-        <v>0.12224986779203618</v>
+        <v>0.0061695906589112563</v>
       </c>
       <c r="E85">
-        <v>0.12069375404507213</v>
+        <v>0.030956219036846058</v>
       </c>
       <c r="F85">
-        <v>0.066697746804324901</v>
+        <v>0.027660263164275865</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.87775013220796383</v>
+        <v>0.99383040934108879</v>
       </c>
       <c r="B86">
-        <v>0.87930624595492779</v>
+        <v>0.96904378096315402</v>
       </c>
       <c r="C86">
-        <v>0.93330225319567517</v>
+        <v>0.97233973683572406</v>
       </c>
       <c r="D86">
-        <v>0.26430475405670334</v>
+        <v>0.014626069377255109</v>
       </c>
       <c r="E86">
-        <v>0.18538591052515849</v>
+        <v>0.048912489934707551</v>
       </c>
       <c r="F86">
-        <v>0.11985322933450372</v>
+        <v>0.050592694069573091</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B87">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C87">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D87">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E87">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F87">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B88">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C88">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D88">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E88">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F88">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="89">
@@ -1280,306 +1280,306 @@
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.81187265117163965</v>
+        <v>0.949030784258178</v>
       </c>
       <c r="B91">
-        <v>0.61623339006126621</v>
+        <v>0.91921380486227489</v>
       </c>
       <c r="C91">
-        <v>0.62511171328671322</v>
+        <v>0.91495474500203999</v>
       </c>
       <c r="D91">
-        <v>0.61360816640986138</v>
+        <v>0.93666456378437923</v>
       </c>
       <c r="E91">
-        <v>0.90558668181818192</v>
+        <v>0.99036531726785459</v>
       </c>
       <c r="F91">
-        <v>0.72463303571428583</v>
+        <v>0.91057417681974384</v>
       </c>
       <c r="G91">
-        <v>0.18812734882836035</v>
+        <v>0.050969215741822026</v>
       </c>
       <c r="H91">
-        <v>0.38376660993873385</v>
+        <v>0.080786195137725253</v>
       </c>
       <c r="I91">
-        <v>0.37488828671328672</v>
+        <v>0.085045254997960035</v>
       </c>
       <c r="J91">
-        <v>0.38639183359013868</v>
+        <v>0.063335436215620683</v>
       </c>
       <c r="K91">
-        <v>0.094413318181818182</v>
+        <v>0.0096346827321453221</v>
       </c>
       <c r="L91">
-        <v>0.27536696428571428</v>
+        <v>0.089425823180256173</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.018268703302802791</v>
+        <v>0.0053867733632120881</v>
       </c>
       <c r="B92">
-        <v>0.035643695996337946</v>
+        <v>0.0089311422332635226</v>
       </c>
       <c r="C92">
-        <v>0.040158955446394883</v>
+        <v>0.010725481734861998</v>
       </c>
       <c r="D92">
-        <v>0.04244442196776331</v>
+        <v>0.0086071424539242158</v>
       </c>
       <c r="E92">
-        <v>0.035885819252742028</v>
+        <v>0.0041373200196268339</v>
       </c>
       <c r="F92">
-        <v>0.066986149366216705</v>
+        <v>0.022850309943866907</v>
       </c>
       <c r="G92">
-        <v>0.018268703302802791</v>
+        <v>0.0053867733632120881</v>
       </c>
       <c r="H92">
-        <v>0.035643695996337946</v>
+        <v>0.0089311422332635226</v>
       </c>
       <c r="I92">
-        <v>0.040158955446394883</v>
+        <v>0.010725481734861998</v>
       </c>
       <c r="J92">
-        <v>0.04244442196776331</v>
+        <v>0.0086071424539242158</v>
       </c>
       <c r="K92">
-        <v>0.035885819252742028</v>
+        <v>0.0041373200196268339</v>
       </c>
       <c r="L92">
-        <v>0.066986149366216705</v>
+        <v>0.022850309943866907</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>44.440628199762919</v>
+        <v>176.1779678238178</v>
       </c>
       <c r="B93">
-        <v>17.288706258873333</v>
+        <v>102.92231171044575</v>
       </c>
       <c r="C93">
-        <v>15.565935576216045</v>
+        <v>85.30663401608156</v>
       </c>
       <c r="D93">
-        <v>14.456744560590293</v>
+        <v>108.82410379502083</v>
       </c>
       <c r="E93">
-        <v>25.235223848177473</v>
+        <v>239.37363137724617</v>
       </c>
       <c r="F93">
-        <v>10.817654732662419</v>
+        <v>39.849532853454562</v>
       </c>
       <c r="G93">
-        <v>10.297794304837048</v>
+        <v>9.4619194655387364</v>
       </c>
       <c r="H93">
-        <v>10.766745681428835</v>
+        <v>9.0454493980447133</v>
       </c>
       <c r="I93">
-        <v>9.3351105014097389</v>
+        <v>7.929271346528874</v>
       </c>
       <c r="J93">
-        <v>9.1034773399341997</v>
+        <v>7.358474261889838</v>
       </c>
       <c r="K93">
-        <v>2.6309366804996119</v>
+        <v>2.3287255243587186</v>
       </c>
       <c r="L93">
-        <v>4.1108045004985883</v>
+        <v>3.9135496805048078</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>7.5363647223050409e-244</v>
+        <v>0</v>
       </c>
       <c r="B94">
-        <v>3.7748557592456554e-59</v>
+        <v>0</v>
       </c>
       <c r="C94">
-        <v>2.4790300867192634e-49</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>2.3816299564091838e-43</v>
+        <v>0</v>
       </c>
       <c r="E94">
-        <v>2.7028166458075532e-110</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>6.169029746939196e-26</v>
+        <v>7.9296022560318484e-303</v>
       </c>
       <c r="G94">
-        <v>9.2205505064852902e-24</v>
+        <v>4.4846360708377707e-21</v>
       </c>
       <c r="H94">
-        <v>1.0160021952882838e-25</v>
+        <v>2.0738744006081912e-19</v>
       </c>
       <c r="I94">
-        <v>5.7896274024977363e-20</v>
+        <v>2.6840801118155575e-15</v>
       </c>
       <c r="J94">
-        <v>4.2728991864527226e-19</v>
+        <v>2.1546452505565017e-13</v>
       </c>
       <c r="K94">
-        <v>0.0086392296507525508</v>
+        <v>0.019912217517144174</v>
       </c>
       <c r="L94">
-        <v>4.2491131320932505e-05</v>
+        <v>9.2125675939679855e-05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.77602548647036029</v>
+        <v>0.93847041379633833</v>
       </c>
       <c r="B95">
-        <v>0.54629271503004873</v>
+        <v>0.90170496157683822</v>
       </c>
       <c r="C95">
-        <v>0.54631111828786638</v>
+        <v>0.89392823193665671</v>
       </c>
       <c r="D95">
-        <v>0.53032298958532009</v>
+        <v>0.91979089808460901</v>
       </c>
       <c r="E95">
-        <v>0.83517090835734598</v>
+        <v>0.98225440760441329</v>
       </c>
       <c r="F95">
-        <v>0.59319165811706631</v>
+        <v>0.86577783550287002</v>
       </c>
       <c r="G95">
-        <v>0.15228018412708097</v>
+        <v>0.040408845279982369</v>
       </c>
       <c r="H95">
-        <v>0.31382593490751637</v>
+        <v>0.063277351852288638</v>
       </c>
       <c r="I95">
-        <v>0.29608769171443988</v>
+        <v>0.064018741932576784</v>
       </c>
       <c r="J95">
-        <v>0.30310665676559734</v>
+        <v>0.046461770515850515</v>
       </c>
       <c r="K95">
-        <v>0.023997544720982256</v>
+        <v>0.0015237730687040259</v>
       </c>
       <c r="L95">
-        <v>0.14392558668849478</v>
+        <v>0.04462948186338233</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.847719815872919</v>
+        <v>0.95959115472001766</v>
       </c>
       <c r="B96">
-        <v>0.68617406509248369</v>
+        <v>0.93672264814771156</v>
       </c>
       <c r="C96">
-        <v>0.70391230828556006</v>
+        <v>0.93598125806742327</v>
       </c>
       <c r="D96">
-        <v>0.69689334323440266</v>
+        <v>0.95353822948414946</v>
       </c>
       <c r="E96">
-        <v>0.97600245527901786</v>
+        <v>0.9984762269312959</v>
       </c>
       <c r="F96">
-        <v>0.85607441331150536</v>
+        <v>0.95537051813661766</v>
       </c>
       <c r="G96">
-        <v>0.22397451352963973</v>
+        <v>0.061529586203661682</v>
       </c>
       <c r="H96">
-        <v>0.45370728496995133</v>
+        <v>0.098295038423161868</v>
       </c>
       <c r="I96">
-        <v>0.45368888171213356</v>
+        <v>0.10607176806334329</v>
       </c>
       <c r="J96">
-        <v>0.46967701041468002</v>
+        <v>0.080209101915390851</v>
       </c>
       <c r="K96">
-        <v>0.16482909164265411</v>
+        <v>0.017745592395586617</v>
       </c>
       <c r="L96">
-        <v>0.4068083418829338</v>
+        <v>0.13422216449713001</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="G97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="H97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="I97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="J97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="K97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="L97">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="G98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="H98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="I98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="J98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="K98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="L98">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="99">
@@ -1622,306 +1622,306 @@
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.35210753202587441</v>
+        <v>0.82707611890856969</v>
       </c>
       <c r="B101">
-        <v>0.50004318584070795</v>
+        <v>0.89213363171355498</v>
       </c>
       <c r="C101">
-        <v>0.57806674825174831</v>
+        <v>0.90443398612811099</v>
       </c>
       <c r="D101">
-        <v>0.49373020030816639</v>
+        <v>0.91375266542746725</v>
       </c>
       <c r="E101">
-        <v>0.22337063636363638</v>
+        <v>0.91133373243542404</v>
       </c>
       <c r="F101">
-        <v>0.37315535714285714</v>
+        <v>0.78870556076226184</v>
       </c>
       <c r="G101">
-        <v>0.64789246797412559</v>
+        <v>0.17292388109143031</v>
       </c>
       <c r="H101">
-        <v>0.49995681415929194</v>
+        <v>0.10786636828644502</v>
       </c>
       <c r="I101">
-        <v>0.4219332517482518</v>
+        <v>0.095566013871889025</v>
       </c>
       <c r="J101">
-        <v>0.50626979969183361</v>
+        <v>0.086247334572532697</v>
       </c>
       <c r="K101">
-        <v>0.7766293636363637</v>
+        <v>0.088666267564575962</v>
       </c>
       <c r="L101">
-        <v>0.62684464285714281</v>
+        <v>0.21129443923773822</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.022125832459209429</v>
+        <v>0.0088043711670678197</v>
       </c>
       <c r="B102">
-        <v>0.036499692270689096</v>
+        <v>0.0099346086162920445</v>
       </c>
       <c r="C102">
-        <v>0.041269726527430953</v>
+        <v>0.011343307068213196</v>
       </c>
       <c r="D102">
-        <v>0.04329495261368875</v>
+        <v>0.0098270631968819643</v>
       </c>
       <c r="E102">
-        <v>0.049217508284380262</v>
+        <v>0.012912943502039052</v>
       </c>
       <c r="F102">
-        <v>0.07184570623750651</v>
+        <v>0.031795248673260182</v>
       </c>
       <c r="G102">
-        <v>0.022125832459209429</v>
+        <v>0.0088043711670678197</v>
       </c>
       <c r="H102">
-        <v>0.036499692270689096</v>
+        <v>0.0099346086162920445</v>
       </c>
       <c r="I102">
-        <v>0.041269726527430953</v>
+        <v>0.011343307068213196</v>
       </c>
       <c r="J102">
-        <v>0.04329495261368875</v>
+        <v>0.0098270631968819643</v>
       </c>
       <c r="K102">
-        <v>0.049217508284380262</v>
+        <v>0.012912943502039052</v>
       </c>
       <c r="L102">
-        <v>0.07184570623750651</v>
+        <v>0.031795248673260182</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>15.913865960750181</v>
+        <v>93.93926076199449</v>
       </c>
       <c r="B103">
-        <v>13.699928813982501</v>
+        <v>89.800581600217242</v>
       </c>
       <c r="C103">
-        <v>14.00704092060125</v>
+        <v>79.732831059697119</v>
       </c>
       <c r="D103">
-        <v>11.403874366455863</v>
+        <v>92.983289831431279</v>
       </c>
       <c r="E103">
-        <v>4.5384385384362416</v>
+        <v>70.575212560290183</v>
       </c>
       <c r="F103">
-        <v>5.1938435389483883</v>
+        <v>24.805767958203251</v>
       </c>
       <c r="G103">
-        <v>29.282173638825213</v>
+        <v>19.640685042702525</v>
       </c>
       <c r="H103">
-        <v>13.697562446595745</v>
+        <v>10.857636415545544</v>
       </c>
       <c r="I103">
-        <v>10.223795679087026</v>
+        <v>8.4248811477288719</v>
       </c>
       <c r="J103">
-        <v>11.693506266403999</v>
+        <v>8.7765116438752706</v>
       </c>
       <c r="K103">
-        <v>15.779534371162708</v>
+        <v>6.8664644548762164</v>
       </c>
       <c r="L103">
-        <v>8.7248727263523413</v>
+        <v>6.6454721398495282</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>2.8899740602637363e-51</v>
+        <v>0</v>
       </c>
       <c r="B104">
-        <v>1.9535427559462643e-39</v>
+        <v>0</v>
       </c>
       <c r="C104">
-        <v>5.2442357613874889e-41</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>1.7301263488319004e-28</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>6.3188955751027615e-06</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>2.471576991242247e-07</v>
+        <v>2.1481373890650637e-128</v>
       </c>
       <c r="G104">
-        <v>2.1040520224363326e-138</v>
+        <v>7.1453853121049501e-83</v>
       </c>
       <c r="H104">
-        <v>2.0083359120285748e-39</v>
+        <v>3.612137928269131e-27</v>
       </c>
       <c r="I104">
-        <v>1.8507730267109079e-23</v>
+        <v>4.6359513464872621e-17</v>
       </c>
       <c r="J104">
-        <v>8.6915495206304406e-30</v>
+        <v>2.2610839125638016e-18</v>
       </c>
       <c r="K104">
-        <v>1.6234706737554248e-50</v>
+        <v>7.3617709159794369e-12</v>
       </c>
       <c r="L104">
-        <v>1.0241592041035853e-17</v>
+        <v>3.3357762647153194e-11</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.30869184196994642</v>
+        <v>0.80981580091510319</v>
       </c>
       <c r="B105">
-        <v>0.42842286015658182</v>
+        <v>0.87265756685849494</v>
       </c>
       <c r="C105">
-        <v>0.49708657908021187</v>
+        <v>0.88219627222672159</v>
       </c>
       <c r="D105">
-        <v>0.40877609758107908</v>
+        <v>0.89448743540689291</v>
       </c>
       <c r="E105">
-        <v>0.12679519275313769</v>
+        <v>0.88601886248644512</v>
       </c>
       <c r="F105">
-        <v>0.23217847323996385</v>
+        <v>0.72637332915047437</v>
       </c>
       <c r="G105">
-        <v>0.60447677791819754</v>
+        <v>0.15566356309796378</v>
       </c>
       <c r="H105">
-        <v>0.42833648847516581</v>
+        <v>0.088390303431385028</v>
       </c>
       <c r="I105">
-        <v>0.34095308257671536</v>
+        <v>0.073328299970499611</v>
       </c>
       <c r="J105">
-        <v>0.4213156969647463</v>
+        <v>0.066982104551958327</v>
       </c>
       <c r="K105">
-        <v>0.68005392002586507</v>
+        <v>0.063351397615597077</v>
       </c>
       <c r="L105">
-        <v>0.4858677589542495</v>
+        <v>0.14896220762595069</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.39552322208180241</v>
+        <v>0.84433643690203619</v>
       </c>
       <c r="B106">
-        <v>0.57166351152483408</v>
+        <v>0.91160969656861501</v>
       </c>
       <c r="C106">
-        <v>0.65904691742328469</v>
+        <v>0.92667170002950039</v>
       </c>
       <c r="D106">
-        <v>0.57868430303525364</v>
+        <v>0.93301789544804159</v>
       </c>
       <c r="E106">
-        <v>0.31994607997413504</v>
+        <v>0.93664860238440295</v>
       </c>
       <c r="F106">
-        <v>0.51413224104575039</v>
+        <v>0.85103779237404931</v>
       </c>
       <c r="G106">
-        <v>0.69130815803005363</v>
+        <v>0.19018419908489684</v>
       </c>
       <c r="H106">
-        <v>0.57157713984341807</v>
+        <v>0.12734243314150501</v>
       </c>
       <c r="I106">
-        <v>0.5029134209197883</v>
+        <v>0.11780372777327844</v>
       </c>
       <c r="J106">
-        <v>0.59122390241892087</v>
+        <v>0.10551256459310707</v>
       </c>
       <c r="K106">
-        <v>0.87320480724686234</v>
+        <v>0.11398113751355485</v>
       </c>
       <c r="L106">
-        <v>0.76782152676003612</v>
+        <v>0.27362667084952574</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="G107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="H107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="I107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="J107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="K107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="L107">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="G108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="H108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="I108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="J108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="K108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="L108">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="109">
@@ -1964,16 +1964,16 @@
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.97351802604876814</v>
+        <v>0.99272108532114112</v>
       </c>
       <c r="B111">
-        <v>0.99220568413887</v>
+        <v>0.99828413104372182</v>
       </c>
       <c r="C111">
-        <v>0.98614977272727278</v>
+        <v>0.99681294165646661</v>
       </c>
       <c r="D111">
-        <v>0.98424067796610171</v>
+        <v>0.99705644171779151</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -1982,16 +1982,16 @@
         <v>1</v>
       </c>
       <c r="G111">
-        <v>0.026481973951231884</v>
+        <v>0.0072789146788588858</v>
       </c>
       <c r="H111">
-        <v>0.0077943158611300219</v>
+        <v>0.0017158689562781636</v>
       </c>
       <c r="I111">
-        <v>0.013850227272727274</v>
+        <v>0.0031870583435332513</v>
       </c>
       <c r="J111">
-        <v>0.015759322033898304</v>
+        <v>0.0029435582822085892</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -2002,16 +2002,16 @@
     </row>
     <row r="112">
       <c r="A112">
-        <v>0.0075558610814319641</v>
+        <v>0.0021258566967317393</v>
       </c>
       <c r="B112">
-        <v>0.0054452602073361833</v>
+        <v>0.0012144832143982476</v>
       </c>
       <c r="C112">
-        <v>0.0099457717948125846</v>
+        <v>0.0022775780425257496</v>
       </c>
       <c r="D112">
-        <v>0.010953021858853794</v>
+        <v>0.002068601223465855</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -2020,46 +2020,46 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>0.0075558610814319641</v>
+        <v>0.0021258566967317393</v>
       </c>
       <c r="H112">
-        <v>0.0054452602073361833</v>
+        <v>0.0012144832143982476</v>
       </c>
       <c r="I112">
-        <v>0.0099457717948125846</v>
+        <v>0.0022775780425257496</v>
       </c>
       <c r="J112">
-        <v>0.010953021858853794</v>
+        <v>0.002068601223465855</v>
       </c>
       <c r="K112"/>
       <c r="L112"/>
     </row>
     <row r="113">
       <c r="A113">
-        <v>128.84276398902108</v>
+        <v>466.97460221440883</v>
       </c>
       <c r="B113">
-        <v>182.21455841579629</v>
+        <v>821.98265007586122</v>
       </c>
       <c r="C113">
-        <v>99.152664375591129</v>
+        <v>437.66357202453446</v>
       </c>
       <c r="D113">
-        <v>89.860194807380765</v>
+        <v>481.99548100782084</v>
       </c>
       <c r="E113"/>
       <c r="F113"/>
       <c r="G113">
-        <v>3.5048254151084923</v>
+        <v>3.4239912267131558</v>
       </c>
       <c r="H113">
-        <v>1.4313945641438859</v>
+        <v>1.4128387580295565</v>
       </c>
       <c r="I113">
-        <v>1.3925744083481923</v>
+        <v>1.3993190503359971</v>
       </c>
       <c r="J113">
-        <v>1.4388104248289593</v>
+        <v>1.4229703863738319</v>
       </c>
       <c r="K113"/>
       <c r="L113"/>
@@ -2080,144 +2080,144 @@
       <c r="E114"/>
       <c r="F114"/>
       <c r="G114">
-        <v>0.00047610895147848556</v>
+        <v>0.00062191319816825891</v>
       </c>
       <c r="H114">
-        <v>0.15261360256211182</v>
+        <v>0.15776373415528711</v>
       </c>
       <c r="I114">
-        <v>0.16404221563262272</v>
+        <v>0.16177771991255824</v>
       </c>
       <c r="J114">
-        <v>0.15050111949687042</v>
+        <v>0.15480547590552191</v>
       </c>
       <c r="K114"/>
       <c r="L114"/>
     </row>
     <row r="115">
       <c r="A115">
-        <v>0.95869178511876607</v>
+        <v>0.98855350061828606</v>
       </c>
       <c r="B115">
-        <v>0.9815209006455744</v>
+        <v>0.99590322659518504</v>
       </c>
       <c r="C115">
-        <v>0.96663400777665986</v>
+        <v>0.99234791848525206</v>
       </c>
       <c r="D115">
-        <v>0.9627484695677746</v>
+        <v>0.99300110213235404</v>
       </c>
       <c r="E115"/>
       <c r="F115"/>
       <c r="G115">
-        <v>0.01165573302122982</v>
+        <v>0.0031113299760038094</v>
       </c>
       <c r="H115">
-        <v>-0.0028904676321656253</v>
+        <v>-0.0006650354922586618</v>
       </c>
       <c r="I115">
-        <v>-0.0056655376778856834</v>
+        <v>-0.0012779648276813383</v>
       </c>
       <c r="J115">
-        <v>-0.0057328863644288582</v>
+        <v>-0.0011117813032288956</v>
       </c>
       <c r="K115"/>
       <c r="L115"/>
     </row>
     <row r="116">
       <c r="A116">
-        <v>0.9883442669787702</v>
+        <v>0.99688867002399617</v>
       </c>
       <c r="B116">
-        <v>1.0028904676321657</v>
+        <v>1.0006650354922586</v>
       </c>
       <c r="C116">
-        <v>1.0056655376778858</v>
+        <v>1.0012779648276813</v>
       </c>
       <c r="D116">
-        <v>1.0057328863644288</v>
+        <v>1.0011117813032291</v>
       </c>
       <c r="E116"/>
       <c r="F116"/>
       <c r="G116">
-        <v>0.04130821488123395</v>
+        <v>0.011446499381713961</v>
       </c>
       <c r="H116">
-        <v>0.018479099354425668</v>
+        <v>0.0040967734048149886</v>
       </c>
       <c r="I116">
-        <v>0.033365992223340232</v>
+        <v>0.0076520815147478414</v>
       </c>
       <c r="J116">
-        <v>0.037251530432225469</v>
+        <v>0.0069988978676460735</v>
       </c>
       <c r="K116"/>
       <c r="L116"/>
     </row>
     <row r="117">
       <c r="A117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="G117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="H117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="I117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="J117">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="K117"/>
       <c r="L117"/>
     </row>
     <row r="118">
       <c r="A118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="G118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="H118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="I118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="J118">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="K118">
         <v>1.9599639845400538</v>
@@ -2266,306 +2266,306 @@
     </row>
     <row r="121">
       <c r="A121">
-        <v>0.8625017907537178</v>
+        <v>0.96209470597032387</v>
       </c>
       <c r="B121">
-        <v>0.89151773995915584</v>
+        <v>0.97664019733830565</v>
       </c>
       <c r="C121">
-        <v>0.8106717657342658</v>
+        <v>0.95734257445940441</v>
       </c>
       <c r="D121">
-        <v>0.90842095531587064</v>
+        <v>0.98511320421630177</v>
       </c>
       <c r="E121">
-        <v>0.87104268181818179</v>
+        <v>0.98708999259253005</v>
       </c>
       <c r="F121">
-        <v>0.9022116071428572</v>
+        <v>0.96422359262730395</v>
       </c>
       <c r="G121">
-        <v>0.13749820924628214</v>
+        <v>0.037905294029676129</v>
       </c>
       <c r="H121">
-        <v>0.10848226004084412</v>
+        <v>0.023359802661694365</v>
       </c>
       <c r="I121">
-        <v>0.18932823426573428</v>
+        <v>0.042657425540595678</v>
       </c>
       <c r="J121">
-        <v>0.091579044684129432</v>
+        <v>0.014886795783698153</v>
       </c>
       <c r="K121">
-        <v>0.12895731818181816</v>
+        <v>0.012910007407469998</v>
       </c>
       <c r="L121">
-        <v>0.097788392857142858</v>
+        <v>0.03577640737269603</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>0.016139698435456699</v>
+        <v>0.0047779812160021968</v>
       </c>
       <c r="B122">
-        <v>0.022360995914250493</v>
+        <v>0.0049069143976641595</v>
       </c>
       <c r="C122">
-        <v>0.032944632152259526</v>
+        <v>0.007913252012465781</v>
       </c>
       <c r="D122">
-        <v>0.025047287172210938</v>
+        <v>0.0042821701647777584</v>
       </c>
       <c r="E122">
-        <v>0.041728185188436732</v>
+        <v>0.0047267294568419148</v>
       </c>
       <c r="F122">
-        <v>0.041647846784283703</v>
+        <v>0.014689460797958669</v>
       </c>
       <c r="G122">
-        <v>0.016139698435456699</v>
+        <v>0.0047779812160021968</v>
       </c>
       <c r="H122">
-        <v>0.022360995914250493</v>
+        <v>0.0049069143976641595</v>
       </c>
       <c r="I122">
-        <v>0.032944632152259526</v>
+        <v>0.007913252012465781</v>
       </c>
       <c r="J122">
-        <v>0.025047287172210938</v>
+        <v>0.0042821701647777584</v>
       </c>
       <c r="K122">
-        <v>0.041728185188436732</v>
+        <v>0.0047267294568419148</v>
       </c>
       <c r="L122">
-        <v>0.041647846784283703</v>
+        <v>0.014689460797958669</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>53.439771145842471</v>
+        <v>201.36008545787502</v>
       </c>
       <c r="B123">
-        <v>39.869321714378486</v>
+        <v>199.03346954722016</v>
       </c>
       <c r="C123">
-        <v>24.607097204412568</v>
+        <v>120.97966461213397</v>
       </c>
       <c r="D123">
-        <v>36.268237317282448</v>
+        <v>230.04999014732721</v>
       </c>
       <c r="E123">
-        <v>20.874204758359724</v>
+        <v>208.83149788988297</v>
       </c>
       <c r="F123">
-        <v>21.662863192325158</v>
+        <v>65.640502799210836</v>
       </c>
       <c r="G123">
-        <v>8.5192551642859371</v>
+        <v>7.9333283903932994</v>
       </c>
       <c r="H123">
-        <v>4.851405566051251</v>
+        <v>4.7605889910804926</v>
       </c>
       <c r="I123">
-        <v>5.7468613821735781</v>
+        <v>5.3906314968103182</v>
       </c>
       <c r="J123">
-        <v>3.65624604590844</v>
+        <v>3.4764605821008439</v>
       </c>
       <c r="K123">
-        <v>3.0904128132932422</v>
+        <v>2.7312769908552377</v>
       </c>
       <c r="L123">
-        <v>2.3479819584345099</v>
+        <v>2.4355153578998436</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>2.6840239086999803e-302</v>
+        <v>0</v>
       </c>
       <c r="B124">
-        <v>1.1047726967739322e-212</v>
+        <v>0</v>
       </c>
       <c r="C124">
-        <v>5.2028045663407779e-106</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>1.3230727693858694e-187</v>
+        <v>0</v>
       </c>
       <c r="E124">
-        <v>2.9191003183618411e-81</v>
+        <v>0</v>
       </c>
       <c r="F124">
-        <v>2.276303734609611e-86</v>
+        <v>0</v>
       </c>
       <c r="G124">
-        <v>5.4826007691444191e-17</v>
+        <v>2.5988253145994694e-15</v>
       </c>
       <c r="H124">
-        <v>1.4105864332862405e-06</v>
+        <v>1.9833008790703152e-06</v>
       </c>
       <c r="I124">
-        <v>1.1893733573903189e-08</v>
+        <v>7.3349056524107111e-08</v>
       </c>
       <c r="J124">
-        <v>0.00026857084676713805</v>
+        <v>0.00051228550884436217</v>
       </c>
       <c r="K124">
-        <v>0.0020512118264763542</v>
+        <v>0.0063304915360559485</v>
       </c>
       <c r="L124">
-        <v>0.019059537708192194</v>
+        <v>0.014904384570875406</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>0.83083219612211445</v>
+        <v>0.95272782745167628</v>
       </c>
       <c r="B125">
-        <v>0.84764060811587971</v>
+        <v>0.96702055486035121</v>
       </c>
       <c r="C125">
-        <v>0.74602724032868173</v>
+        <v>0.94182922960991799</v>
       </c>
       <c r="D125">
-        <v>0.85927273643573066</v>
+        <v>0.97671832656477109</v>
       </c>
       <c r="E125">
-        <v>0.78916291715497844</v>
+        <v>0.97782358935417735</v>
       </c>
       <c r="F125">
-        <v>0.82048948388188014</v>
+        <v>0.93542599201345267</v>
       </c>
       <c r="G125">
-        <v>0.1058286146146788</v>
+        <v>0.02853841551102854</v>
       </c>
       <c r="H125">
-        <v>0.064605128197567946</v>
+        <v>0.013740160183739957</v>
       </c>
       <c r="I125">
-        <v>0.12468370886015025</v>
+        <v>0.027144080691109261</v>
       </c>
       <c r="J125">
-        <v>0.042430825803989436</v>
+        <v>0.0064919181321674378</v>
       </c>
       <c r="K125">
-        <v>0.047077553518614784</v>
+        <v>0.0036436041691172583</v>
       </c>
       <c r="L125">
-        <v>0.016066269596165861</v>
+        <v>0.0069788067588447099</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.89417138538532115</v>
+        <v>0.97146158448897146</v>
       </c>
       <c r="B126">
-        <v>0.93539487180243197</v>
+        <v>0.98625983981626009</v>
       </c>
       <c r="C126">
-        <v>0.87531629113984988</v>
+        <v>0.97285591930889082</v>
       </c>
       <c r="D126">
-        <v>0.95756917419601062</v>
+        <v>0.99350808186783246</v>
       </c>
       <c r="E126">
-        <v>0.95292244648138513</v>
+        <v>0.99635639583088276</v>
       </c>
       <c r="F126">
-        <v>0.98393373040383425</v>
+        <v>0.99302119324115523</v>
       </c>
       <c r="G126">
-        <v>0.16916780387788549</v>
+        <v>0.047272172548323721</v>
       </c>
       <c r="H126">
-        <v>0.15235939188412029</v>
+        <v>0.032979445139648775</v>
       </c>
       <c r="I126">
-        <v>0.25397275967131833</v>
+        <v>0.058170770390082095</v>
       </c>
       <c r="J126">
-        <v>0.14072726356426943</v>
+        <v>0.02328167343522887</v>
       </c>
       <c r="K126">
-        <v>0.21083708284502153</v>
+        <v>0.022176410645822736</v>
       </c>
       <c r="L126">
-        <v>0.17951051611811986</v>
+        <v>0.064574007986547347</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="G127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="H127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="I127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="J127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="K127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="L127">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="G128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="H128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="I128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="J128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="K128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="L128">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="129">
@@ -2608,162 +2608,162 @@
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.61793269730269729</v>
+        <v>0.91780267879384514</v>
       </c>
       <c r="B131">
-        <v>0.72764310195852544</v>
+        <v>0.93817847379193942</v>
       </c>
       <c r="C131">
-        <v>0.85322176779255476</v>
+        <v>0.96888528673126262</v>
       </c>
       <c r="D131">
-        <v>0.38206730269730271</v>
+        <v>0.082197321206154875</v>
       </c>
       <c r="E131">
-        <v>0.27235689804147467</v>
+        <v>0.061821526208060397</v>
       </c>
       <c r="F131">
-        <v>0.14677823220744518</v>
+        <v>0.031114713268737472</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.029105099302780022</v>
+        <v>0.0076534522836814913</v>
       </c>
       <c r="B132">
-        <v>0.019202229139485386</v>
+        <v>0.0048795377192768141</v>
       </c>
       <c r="C132">
-        <v>0.022779383198752508</v>
+        <v>0.0051292410816903538</v>
       </c>
       <c r="D132">
-        <v>0.029105099302780022</v>
+        <v>0.0076534522836814913</v>
       </c>
       <c r="E132">
-        <v>0.019202229139485386</v>
+        <v>0.0048795377192768141</v>
       </c>
       <c r="F132">
-        <v>0.022779383198752508</v>
+        <v>0.0051292410816903538</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>21.231080192317862</v>
+        <v>119.92008897092913</v>
       </c>
       <c r="B133">
-        <v>37.89367873244877</v>
+        <v>192.26790072461719</v>
       </c>
       <c r="C133">
-        <v>37.455876673573876</v>
+        <v>188.89447216467434</v>
       </c>
       <c r="D133">
-        <v>13.127160251977182</v>
+        <v>10.739901179159899</v>
       </c>
       <c r="E133">
-        <v>14.183608375000036</v>
+        <v>12.669545716150921</v>
       </c>
       <c r="F133">
-        <v>6.4434682417337514</v>
+        <v>6.0661436600838314</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>1.455817578863951e-83</v>
+        <v>0</v>
       </c>
       <c r="B134">
-        <v>5.6962906328964697e-199</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>6.4605402386543674e-196</v>
+        <v>0</v>
       </c>
       <c r="D134">
-        <v>1.4335470966044353e-36</v>
+        <v>1.2653700040573756e-26</v>
       </c>
       <c r="E134">
-        <v>6.3933401893824712e-42</v>
+        <v>3.0259518332231975e-36</v>
       </c>
       <c r="F134">
-        <v>1.7729029146740335e-10</v>
+        <v>1.4039544148656843e-09</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.56082216947482577</v>
+        <v>0.90279865208285404</v>
       </c>
       <c r="B135">
-        <v>0.68996415675997746</v>
+        <v>0.9286125012656038</v>
       </c>
       <c r="C135">
-        <v>0.80852366920369878</v>
+        <v>0.95882978924539142</v>
       </c>
       <c r="D135">
-        <v>0.3249567748694312</v>
+        <v>0.067193294495163813</v>
       </c>
       <c r="E135">
-        <v>0.23467795284292667</v>
+        <v>0.052255553681724784</v>
       </c>
       <c r="F135">
-        <v>0.10208013361858921</v>
+        <v>0.021059215782866229</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.6750432251305688</v>
+        <v>0.93280670550483624</v>
       </c>
       <c r="B136">
-        <v>0.76532204715707342</v>
+        <v>0.94774444631827504</v>
       </c>
       <c r="C136">
-        <v>0.89791986638141075</v>
+        <v>0.97894078421713382</v>
       </c>
       <c r="D136">
-        <v>0.43917783052517423</v>
+        <v>0.097201347917145936</v>
       </c>
       <c r="E136">
-        <v>0.31003584324002265</v>
+        <v>0.07138749873439601</v>
       </c>
       <c r="F136">
-        <v>0.19147633079630116</v>
+        <v>0.041170210754608715</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B137">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C137">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D137">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E137">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F137">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B138">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C138">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D138">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E138">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F138">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="139">
@@ -2788,162 +2788,162 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>0.51484768731268726</v>
+        <v>0.89568881360100594</v>
       </c>
       <c r="B141">
-        <v>0.41661958525345633</v>
+        <v>0.86778627186956814</v>
       </c>
       <c r="C141">
-        <v>0.30007826752327166</v>
+        <v>0.85125387624497173</v>
       </c>
       <c r="D141">
-        <v>0.48515231268731263</v>
+        <v>0.10431118639899399</v>
       </c>
       <c r="E141">
-        <v>0.58338041474654379</v>
+        <v>0.13221372813043181</v>
       </c>
       <c r="F141">
-        <v>0.6999217324767284</v>
+        <v>0.14874612375502821</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.030047748520079624</v>
+        <v>0.0083326148329416726</v>
       </c>
       <c r="B142">
-        <v>0.021144829813382029</v>
+        <v>0.0066876570400344901</v>
       </c>
       <c r="C142">
-        <v>0.028426168374937135</v>
+        <v>0.010075050213621652</v>
       </c>
       <c r="D142">
-        <v>0.030047748520079624</v>
+        <v>0.0083326148329416726</v>
       </c>
       <c r="E142">
-        <v>0.021144829813382029</v>
+        <v>0.0066876570400344901</v>
       </c>
       <c r="F142">
-        <v>0.028426168374937135</v>
+        <v>0.010075050213621652</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>17.134318299044487</v>
+        <v>107.49192559099721</v>
       </c>
       <c r="B143">
-        <v>19.703142041360309</v>
+        <v>129.75938608614607</v>
       </c>
       <c r="C143">
-        <v>10.55640927631476</v>
+        <v>84.491278772393699</v>
       </c>
       <c r="D143">
-        <v>16.146045430429041</v>
+        <v>12.518421706787196</v>
       </c>
       <c r="E143">
-        <v>27.5897427359447</v>
+        <v>19.769812856574049</v>
       </c>
       <c r="F143">
-        <v>24.622443772402242</v>
+        <v>14.763809668553387</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>3.025197596883115e-58</v>
+        <v>0</v>
       </c>
       <c r="B144">
-        <v>7.9911387053481601e-74</v>
+        <v>0</v>
       </c>
       <c r="C144">
-        <v>7.8267821809320436e-25</v>
+        <v>0</v>
       </c>
       <c r="D144">
-        <v>1.4333309247134756e-52</v>
+        <v>1.9393845854001287e-35</v>
       </c>
       <c r="E144">
-        <v>1.4553843149999511e-126</v>
+        <v>6.668190028397079e-84</v>
       </c>
       <c r="F144">
-        <v>4.0916046853217736e-106</v>
+        <v>2.4266232270977266e-48</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>0.45588747693274939</v>
+        <v>0.87935333898226065</v>
       </c>
       <c r="B145">
-        <v>0.37512883550853388</v>
+        <v>0.85467561524777524</v>
       </c>
       <c r="C145">
-        <v>0.24429994967154234</v>
+        <v>0.83150248603351529</v>
       </c>
       <c r="D145">
-        <v>0.42619210230737475</v>
+        <v>0.087975711780248711</v>
       </c>
       <c r="E145">
-        <v>0.54188966500162139</v>
+        <v>0.11910307150863889</v>
       </c>
       <c r="F145">
-        <v>0.64414341462499913</v>
+        <v>0.1289947335435718</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>0.57380789769262508</v>
+        <v>0.91202428821975123</v>
       </c>
       <c r="B146">
-        <v>0.45811033499837878</v>
+        <v>0.88089692849136103</v>
       </c>
       <c r="C146">
-        <v>0.35585658537500098</v>
+        <v>0.87100526645642817</v>
       </c>
       <c r="D146">
-        <v>0.54411252306725055</v>
+        <v>0.12064666101773927</v>
       </c>
       <c r="E146">
-        <v>0.62487116449146618</v>
+        <v>0.14532438475222473</v>
       </c>
       <c r="F146">
-        <v>0.75570005032845766</v>
+        <v>0.16849751396648463</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B147">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C147">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D147">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E147">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F147">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B148">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C148">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D148">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E148">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F148">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="149">
@@ -2968,62 +2968,62 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>0.98671714285714285</v>
+        <v>0.99718592375366577</v>
       </c>
       <c r="B151">
-        <v>0.98405072004608285</v>
+        <v>0.99647250260811338</v>
       </c>
       <c r="C151">
-        <v>0.9804112416161701</v>
+        <v>0.99586827240967146</v>
       </c>
       <c r="D151">
-        <v>0.013282857142857143</v>
+        <v>0.002814076246334311</v>
       </c>
       <c r="E151">
-        <v>0.01594927995391705</v>
+        <v>0.0035274973918866378</v>
       </c>
       <c r="F151">
-        <v>0.019588758383830063</v>
+        <v>0.0041317275903284788</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>0.0065458634658171373</v>
+        <v>0.0013987613565148397</v>
       </c>
       <c r="B152">
-        <v>0.00527645538382509</v>
+        <v>0.0011839179700294231</v>
       </c>
       <c r="C152">
-        <v>0.0087248114137558532</v>
+        <v>0.0018651143566124904</v>
       </c>
       <c r="D152">
-        <v>0.0065458634658171373</v>
+        <v>0.0013987613565148397</v>
       </c>
       <c r="E152">
-        <v>0.00527645538382509</v>
+        <v>0.0011839179700294231</v>
       </c>
       <c r="F152">
-        <v>0.0087248114137558532</v>
+        <v>0.0018651143566124904</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>150.73903511887082</v>
+        <v>712.90640044436088</v>
       </c>
       <c r="B153">
-        <v>186.49844421364358</v>
+        <v>841.6736022541736</v>
       </c>
       <c r="C153">
-        <v>112.3704794433056</v>
+        <v>533.94488594169366</v>
       </c>
       <c r="D153">
-        <v>2.0291986247835694</v>
+        <v>2.0118344228109621</v>
       </c>
       <c r="E153">
-        <v>3.022726204188019</v>
+        <v>2.9795116563683641</v>
       </c>
       <c r="F153">
-        <v>2.2451784290656089</v>
+        <v>2.2152676996346323</v>
       </c>
     </row>
     <row r="154">
@@ -3037,93 +3037,93 @@
         <v>0</v>
       </c>
       <c r="D154">
-        <v>0.042688975272506452</v>
+        <v>0.044289521325620536</v>
       </c>
       <c r="E154">
-        <v>0.0025656339834221106</v>
+        <v>0.0029005987837139612</v>
       </c>
       <c r="F154">
-        <v>0.024963355166475541</v>
+        <v>0.026785401605113668</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.97387273666793983</v>
+        <v>0.99444375564735921</v>
       </c>
       <c r="B155">
-        <v>0.97369716828885922</v>
+        <v>0.99415151905879162</v>
       </c>
       <c r="C155">
-        <v>0.96329126618318328</v>
+        <v>0.99221185376506393</v>
       </c>
       <c r="D155">
-        <v>0.00043845095365408794</v>
+        <v>7.1908140027718455e-05</v>
       </c>
       <c r="E155">
-        <v>0.0055957281966934527</v>
+        <v>0.0012065138425648805</v>
       </c>
       <c r="F155">
-        <v>0.0024687829508432749</v>
+        <v>0.00047530894572099785</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.99956154904634587</v>
+        <v>0.99992809185997233</v>
       </c>
       <c r="B156">
-        <v>0.99440427180330648</v>
+        <v>0.99879348615743513</v>
       </c>
       <c r="C156">
-        <v>0.99753121704915693</v>
+        <v>0.99952469105427899</v>
       </c>
       <c r="D156">
-        <v>0.026127263332060197</v>
+        <v>0.0055562443526409036</v>
       </c>
       <c r="E156">
-        <v>0.026302831711140645</v>
+        <v>0.0058484809412083956</v>
       </c>
       <c r="F156">
-        <v>0.036708733816816851</v>
+        <v>0.0077881462349359597</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B157">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C157">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D157">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E157">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F157">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B158">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C158">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D158">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E158">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F158">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="159">
@@ -3148,162 +3148,162 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.88050247252747271</v>
+        <v>0.97411137624143662</v>
       </c>
       <c r="B161">
-        <v>0.87168659274193561</v>
+        <v>0.97056492145298701</v>
       </c>
       <c r="C161">
-        <v>0.86628872306800364</v>
+        <v>0.97211634459284268</v>
       </c>
       <c r="D161">
-        <v>0.11949752747252747</v>
+        <v>0.02588862375856326</v>
       </c>
       <c r="E161">
-        <v>0.12831340725806453</v>
+        <v>0.029435078547013094</v>
       </c>
       <c r="F161">
-        <v>0.13371127693199644</v>
+        <v>0.02788365540715728</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>0.019519164087766289</v>
+        <v>0.0044623392217272885</v>
       </c>
       <c r="B162">
-        <v>0.014234757933761529</v>
+        <v>0.0034364157437880086</v>
       </c>
       <c r="C162">
-        <v>0.020603474129794429</v>
+        <v>0.0046956987041981424</v>
       </c>
       <c r="D162">
-        <v>0.019519164087766289</v>
+        <v>0.0044623392217272885</v>
       </c>
       <c r="E162">
-        <v>0.014234757933761529</v>
+        <v>0.0034364157437880086</v>
       </c>
       <c r="F162">
-        <v>0.020603474129794429</v>
+        <v>0.0046956987041981424</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>45.109640380518705</v>
+        <v>218.29612851897355</v>
       </c>
       <c r="B163">
-        <v>61.236488656719487</v>
+        <v>282.43524468989887</v>
       </c>
       <c r="C163">
-        <v>42.04575973987194</v>
+        <v>207.02272565395472</v>
       </c>
       <c r="D163">
-        <v>6.1220617304725158</v>
+        <v>5.8015812945171517</v>
       </c>
       <c r="E163">
-        <v>9.0140912725839222</v>
+        <v>8.5656337130403202</v>
       </c>
       <c r="F163">
-        <v>6.4897442096252211</v>
+        <v>5.9381270314954788</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>2.4671930453576174e-248</v>
+        <v>0</v>
       </c>
       <c r="B164">
         <v>0</v>
       </c>
       <c r="C164">
-        <v>1.2509216335480471e-227</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>1.3013794089959437e-09</v>
+        <v>6.9624397704464598e-09</v>
       </c>
       <c r="E164">
-        <v>9.1381623657593035e-19</v>
+        <v>1.4032253406753118e-17</v>
       </c>
       <c r="F164">
-        <v>1.3207676135450139e-10</v>
+        <v>3.0723646146451076e-09</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.84220163210722754</v>
+        <v>0.96536329048946101</v>
       </c>
       <c r="B165">
-        <v>0.84375490521728758</v>
+        <v>0.96382808274298415</v>
       </c>
       <c r="C165">
-        <v>0.82586023078218407</v>
+        <v>0.96291077484822218</v>
       </c>
       <c r="D165">
-        <v>0.081196687052282265</v>
+        <v>0.017140538006587644</v>
       </c>
       <c r="E165">
-        <v>0.1003817197334165</v>
+        <v>0.022698239837010206</v>
       </c>
       <c r="F165">
-        <v>0.093282784646176828</v>
+        <v>0.018678085662536779</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.91880331294771789</v>
+        <v>0.98285946199341223</v>
       </c>
       <c r="B166">
-        <v>0.89961828026658364</v>
+        <v>0.97730176016298986</v>
       </c>
       <c r="C166">
-        <v>0.90671721535382321</v>
+        <v>0.98132191433746319</v>
       </c>
       <c r="D166">
-        <v>0.15779836789277268</v>
+        <v>0.034636709510538877</v>
       </c>
       <c r="E166">
-        <v>0.15624509478271256</v>
+        <v>0.036171917257015983</v>
       </c>
       <c r="F166">
-        <v>0.17413976921781604</v>
+        <v>0.037089225151777781</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B167">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C167">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D167">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E167">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F167">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B168">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C168">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D168">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E168">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F168">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="169">
@@ -3328,292 +3328,286 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="B171">
-        <v>0.78686896385094918</v>
+        <v>0.96514129026111384</v>
       </c>
       <c r="C171">
-        <v>0.71232491443346879</v>
+        <v>0.94671543374238021</v>
       </c>
       <c r="D171">
-        <v>0.7054789998100689</v>
+        <v>0.93297045239688503</v>
       </c>
       <c r="E171">
-        <v>0.69533008054042633</v>
+        <v>0.90155269762049151</v>
       </c>
       <c r="F171">
-        <v>0.71804875339411423</v>
+        <v>0.8839001644081268</v>
       </c>
       <c r="G171">
         <v>0</v>
       </c>
       <c r="H171">
-        <v>0.21313103614905077</v>
+        <v>0.03485870973888619</v>
       </c>
       <c r="I171">
-        <v>0.28767508556653126</v>
+        <v>0.053284566257619861</v>
       </c>
       <c r="J171">
-        <v>0.2945210001899311</v>
+        <v>0.067029547603114997</v>
       </c>
       <c r="K171">
-        <v>0.30466991945957361</v>
+        <v>0.098447302379508383</v>
       </c>
       <c r="L171">
-        <v>0.28195124660588577</v>
+        <v>0.11609983559187327</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>1.2273977354317161e-16</v>
+        <v>0</v>
       </c>
       <c r="B172">
-        <v>0.030767813326420139</v>
+        <v>0.005425911144546638</v>
       </c>
       <c r="C172">
-        <v>0.026745887894000835</v>
+        <v>0.0056559609933741362</v>
       </c>
       <c r="D172">
-        <v>0.028047671095120491</v>
+        <v>0.0075803543061576367</v>
       </c>
       <c r="E172">
-        <v>0.03670641599259801</v>
+        <v>0.013379150579910149</v>
       </c>
       <c r="F172">
-        <v>0.044683521973287968</v>
+        <v>0.018904459201858459</v>
       </c>
       <c r="G172"/>
       <c r="H172">
-        <v>0.030767813326420132</v>
+        <v>0.0054259111445466371</v>
       </c>
       <c r="I172">
-        <v>0.026745887894000838</v>
+        <v>0.005655960993374131</v>
       </c>
       <c r="J172">
-        <v>0.028047671095120488</v>
+        <v>0.0075803543061576341</v>
       </c>
       <c r="K172">
-        <v>0.03670641599259801</v>
+        <v>0.01337915057991014</v>
       </c>
       <c r="L172">
-        <v>0.044683521973287968</v>
+        <v>0.018904459201858459</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173">
-        <v>8147318274530358</v>
-      </c>
+      <c r="A173"/>
       <c r="B173">
-        <v>25.574419459158296</v>
+        <v>177.87635376800043</v>
       </c>
       <c r="C173">
-        <v>26.633062893875547</v>
+        <v>167.38365679173558</v>
       </c>
       <c r="D173">
-        <v>25.152854845506315</v>
+        <v>123.07742022546611</v>
       </c>
       <c r="E173">
-        <v>18.943012052188433</v>
+        <v>67.384898034875548</v>
       </c>
       <c r="F173">
-        <v>16.069654353194615</v>
+        <v>46.75617297326508</v>
       </c>
       <c r="G173"/>
       <c r="H173">
-        <v>6.9270777837837585</v>
+        <v>6.4244896037269728</v>
       </c>
       <c r="I173">
-        <v>10.755862235968522</v>
+        <v>9.4209571671448735</v>
       </c>
       <c r="J173">
-        <v>10.500729247397997</v>
+        <v>8.8425349127369817</v>
       </c>
       <c r="K173">
-        <v>8.3001816227716567</v>
+        <v>7.3582625288136638</v>
       </c>
       <c r="L173">
-        <v>6.3099602304052409</v>
+        <v>6.1413994630674082</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174">
-        <v>0</v>
-      </c>
+      <c r="A174"/>
       <c r="B174">
-        <v>3.1013705658706866e-104</v>
+        <v>0</v>
       </c>
       <c r="C174">
-        <v>1.6210191340533833e-115</v>
+        <v>0</v>
       </c>
       <c r="D174">
-        <v>3.2409944963463303e-107</v>
+        <v>0</v>
       </c>
       <c r="E174">
-        <v>2.2398538929612744e-68</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>2.6512467253717693e-50</v>
+        <v>0</v>
       </c>
       <c r="G174"/>
       <c r="H174">
-        <v>9.2463983571785905e-12</v>
+        <v>1.5806212851403729e-10</v>
       </c>
       <c r="I174">
-        <v>1.8585924583064868e-25</v>
+        <v>1.0104453573453571e-20</v>
       </c>
       <c r="J174">
-        <v>1.8095978271464396e-24</v>
+        <v>1.691305021437117e-18</v>
       </c>
       <c r="K174">
-        <v>3.4419763039751321e-16</v>
+        <v>2.7064972229919492e-13</v>
       </c>
       <c r="L174">
-        <v>4.7152045163671972e-10</v>
+        <v>9.4818788016863656e-10</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175">
-        <v>0.99999999999999956</v>
-      </c>
+      <c r="A175"/>
       <c r="B175">
-        <v>0.72646774801923009</v>
+        <v>0.95450151288913332</v>
       </c>
       <c r="C175">
-        <v>0.65983286282829212</v>
+        <v>0.93562438384022606</v>
       </c>
       <c r="D175">
-        <v>0.65043586312025958</v>
+        <v>0.9181063007832071</v>
       </c>
       <c r="E175">
-        <v>0.62329734192993158</v>
+        <v>0.87531415884790609</v>
       </c>
       <c r="F175">
-        <v>0.63033228820637377</v>
+        <v>0.84683022238058392</v>
       </c>
       <c r="G175"/>
       <c r="H175">
-        <v>0.15272982031733168</v>
+        <v>0.024218932366905657</v>
       </c>
       <c r="I175">
-        <v>0.23518303396135462</v>
+        <v>0.042193516355465754</v>
       </c>
       <c r="J175">
-        <v>0.23947786350012173</v>
+        <v>0.052165395989437126</v>
       </c>
       <c r="K175">
-        <v>0.23263718084907889</v>
+        <v>0.072208763606922952</v>
       </c>
       <c r="L175">
-        <v>0.19423478141814535</v>
+        <v>0.079029893564330447</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176">
-        <v>1</v>
-      </c>
+      <c r="A176"/>
       <c r="B176">
-        <v>0.84727017968266827</v>
+        <v>0.97578106763309436</v>
       </c>
       <c r="C176">
-        <v>0.76481696603864546</v>
+        <v>0.95780648364453436</v>
       </c>
       <c r="D176">
-        <v>0.76052213649987821</v>
+        <v>0.94783460401056296</v>
       </c>
       <c r="E176">
-        <v>0.76736281915092108</v>
+        <v>0.92779123639307692</v>
       </c>
       <c r="F176">
-        <v>0.80576521858185468</v>
+        <v>0.92097010643566968</v>
       </c>
       <c r="G176"/>
       <c r="H176">
-        <v>0.27353225198076986</v>
+        <v>0.045498487110866723</v>
       </c>
       <c r="I176">
-        <v>0.34016713717170788</v>
+        <v>0.064375616159773968</v>
       </c>
       <c r="J176">
-        <v>0.34956413687974047</v>
+        <v>0.081893699216792876</v>
       </c>
       <c r="K176">
-        <v>0.37670265807006831</v>
+        <v>0.12468584115209382</v>
       </c>
       <c r="L176">
-        <v>0.36966771179362623</v>
+        <v>0.15316977761941608</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177"/>
+      <c r="A177">
+        <v>5136.0011670881149</v>
+      </c>
       <c r="B177">
-        <v>750.49358234420515</v>
+        <v>2482.7528886138143</v>
       </c>
       <c r="C177">
-        <v>893.89231282446656</v>
+        <v>2410.0470639901337</v>
       </c>
       <c r="D177">
-        <v>942.14938051542663</v>
+        <v>2596.0208461573025</v>
       </c>
       <c r="E177">
-        <v>974.28345876267736</v>
+        <v>1999.1745443906455</v>
       </c>
       <c r="F177">
-        <v>767.25386610470798</v>
+        <v>2508.9844390910603</v>
       </c>
       <c r="G177"/>
       <c r="H177">
-        <v>750.49358234420765</v>
+        <v>2482.7528886138307</v>
       </c>
       <c r="I177">
-        <v>893.89231282446633</v>
+        <v>2410.0470639902187</v>
       </c>
       <c r="J177">
-        <v>942.14938051542856</v>
+        <v>2596.0208461573447</v>
       </c>
       <c r="K177">
-        <v>974.28345876267554</v>
+        <v>1999.1745443907078</v>
       </c>
       <c r="L177">
-        <v>767.25386610470662</v>
+        <v>2508.984439091073</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>1.9599639845400538</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B178">
-        <v>1.9631299498249664</v>
+        <v>1.9609199429434341</v>
       </c>
       <c r="C178">
-        <v>1.96262138737786</v>
+        <v>1.9609487963490366</v>
       </c>
       <c r="D178">
-        <v>1.9624851027073451</v>
+        <v>1.9608782140438348</v>
       </c>
       <c r="E178">
-        <v>1.9624018489034833</v>
+        <v>1.9611513164359391</v>
       </c>
       <c r="F178">
-        <v>1.9630606835373847</v>
+        <v>1.9609099436125923</v>
       </c>
       <c r="G178">
         <v>1.9599639845400538</v>
       </c>
       <c r="H178">
-        <v>1.9631299498249664</v>
+        <v>1.9609199429434341</v>
       </c>
       <c r="I178">
-        <v>1.96262138737786</v>
+        <v>1.9609487963490366</v>
       </c>
       <c r="J178">
-        <v>1.9624851027073451</v>
+        <v>1.9608782140438348</v>
       </c>
       <c r="K178">
-        <v>1.9624018489034833</v>
+        <v>1.9611513164359391</v>
       </c>
       <c r="L178">
-        <v>1.9630606835373847</v>
+        <v>1.9609099436125923</v>
       </c>
     </row>
     <row r="179">
@@ -3656,292 +3650,306 @@
     </row>
     <row r="181">
       <c r="A181">
-        <v>0</v>
+        <v>0.90098756120835688</v>
       </c>
       <c r="B181">
-        <v>0.37833952866248632</v>
+        <v>0.89888869226898405</v>
       </c>
       <c r="C181">
-        <v>0.45504065700540208</v>
+        <v>0.90119835700331541</v>
       </c>
       <c r="D181">
-        <v>0.41799441463759618</v>
+        <v>0.85600629481902391</v>
       </c>
       <c r="E181">
-        <v>0.43309842445895619</v>
+        <v>0.8206549489362116</v>
       </c>
       <c r="F181">
-        <v>0.41743733148355683</v>
+        <v>0.76712399609219606</v>
       </c>
       <c r="G181">
-        <v>0.99999999999999978</v>
+        <v>0.099012438791643148</v>
       </c>
       <c r="H181">
-        <v>0.62166047133751368</v>
+        <v>0.101111307731016</v>
       </c>
       <c r="I181">
-        <v>0.54495934299459792</v>
+        <v>0.098801642996684563</v>
       </c>
       <c r="J181">
-        <v>0.58200558536240388</v>
+        <v>0.14399370518097593</v>
       </c>
       <c r="K181">
-        <v>0.56690157554104381</v>
+        <v>0.17934505106378848</v>
       </c>
       <c r="L181">
-        <v>0.58256266851644312</v>
+        <v>0.23287600390780394</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182"/>
+      <c r="A182">
+        <v>0.039303725349909849</v>
+      </c>
       <c r="B182">
-        <v>0.035987348372429118</v>
+        <v>0.0086688595760033033</v>
       </c>
       <c r="C182">
-        <v>0.029129661420351272</v>
+        <v>0.0073028400979495587</v>
       </c>
       <c r="D182">
-        <v>0.030045938952469046</v>
+        <v>0.0099036118736669041</v>
       </c>
       <c r="E182">
-        <v>0.039896698542438221</v>
+        <v>0.016904179701654035</v>
       </c>
       <c r="F182">
-        <v>0.048375088797510929</v>
+        <v>0.023547417278007694</v>
       </c>
       <c r="G182">
-        <v>1.2273977354317161e-16</v>
+        <v>0.039303725349909842</v>
       </c>
       <c r="H182">
-        <v>0.035987348372429118</v>
+        <v>0.0086688595760033033</v>
       </c>
       <c r="I182">
-        <v>0.029129661420351276</v>
+        <v>0.0073028400979495648</v>
       </c>
       <c r="J182">
-        <v>0.030045938952469042</v>
+        <v>0.0099036118736669041</v>
       </c>
       <c r="K182">
-        <v>0.039896698542438221</v>
+        <v>0.016904179701654035</v>
       </c>
       <c r="L182">
-        <v>0.048375088797510922</v>
+        <v>0.023547417278007701</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183"/>
+      <c r="A183">
+        <v>22.923719143341295</v>
+      </c>
       <c r="B183">
-        <v>10.513126022709205</v>
+        <v>103.69168913027984</v>
       </c>
       <c r="C183">
-        <v>15.621213389301206</v>
+        <v>123.40381891373299</v>
       </c>
       <c r="D183">
-        <v>13.911843969956784</v>
+        <v>86.433748185860566</v>
       </c>
       <c r="E183">
-        <v>10.855495323711265</v>
+        <v>48.547457695087822</v>
       </c>
       <c r="F183">
-        <v>8.6291796430776877</v>
+        <v>32.577840152714238</v>
       </c>
       <c r="G183">
-        <v>8147318274530358</v>
+        <v>2.5191616802265862</v>
       </c>
       <c r="H183">
-        <v>17.274417245305703</v>
+        <v>11.66373810125004</v>
       </c>
       <c r="I183">
-        <v>18.708056201911948</v>
+        <v>13.529208043925996</v>
       </c>
       <c r="J183">
-        <v>19.370524125842877</v>
+        <v>14.53951417097093</v>
       </c>
       <c r="K183">
-        <v>14.209235256346567</v>
+        <v>10.609509259194635</v>
       </c>
       <c r="L183">
-        <v>12.04261703694109</v>
+        <v>9.8896622571554946</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184"/>
+      <c r="A184">
+        <v>1.3485059722352203e-110</v>
+      </c>
       <c r="B184">
-        <v>2.5807277536901554e-24</v>
+        <v>0</v>
       </c>
       <c r="C184">
-        <v>4.9222696439783908e-49</v>
+        <v>0</v>
       </c>
       <c r="D184">
-        <v>1.7810464047343617e-39</v>
+        <v>0</v>
       </c>
       <c r="E184">
-        <v>7.5622578832069372e-26</v>
+        <v>0</v>
       </c>
       <c r="F184">
-        <v>4.1739221838572517e-17</v>
+        <v>4.3211643474489653e-182</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>0.01179480947199477</v>
       </c>
       <c r="H184">
-        <v>3.9570892652396386e-57</v>
+        <v>7.1975858422683602e-31</v>
       </c>
       <c r="I184">
-        <v>1.4902437023349555e-66</v>
+        <v>1.7443813458580047e-40</v>
       </c>
       <c r="J184">
-        <v>1.3782853723497666e-68</v>
+        <v>9.738072040948946e-47</v>
       </c>
       <c r="K184">
-        <v>2.1424540262487466e-41</v>
+        <v>1.0697496356018543e-25</v>
       </c>
       <c r="L184">
-        <v>1.7918572136761218e-30</v>
+        <v>1.7889103174631508e-22</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185"/>
+      <c r="A185">
+        <v>0.82393477218965971</v>
+      </c>
       <c r="B185">
-        <v>0.30769962848228744</v>
+        <v>0.88189217673569598</v>
       </c>
       <c r="C185">
-        <v>0.3978733129367204</v>
+        <v>0.88687906358453195</v>
       </c>
       <c r="D185">
-        <v>0.35901423281418676</v>
+        <v>0.83658983854258873</v>
       </c>
       <c r="E185">
-        <v>0.35479437379452372</v>
+        <v>0.7875056257950489</v>
       </c>
       <c r="F185">
-        <v>0.32245876655044858</v>
+        <v>0.720939718626746</v>
       </c>
       <c r="G185">
-        <v>0.99999999999999956</v>
+        <v>0.021959649772946011</v>
       </c>
       <c r="H185">
-        <v>0.55102057115731473</v>
+        <v>0.084114792197727883</v>
       </c>
       <c r="I185">
-        <v>0.48779199892591624</v>
+        <v>0.084482349577901086</v>
       </c>
       <c r="J185">
-        <v>0.5230254035389944</v>
+        <v>0.12457724890454071</v>
       </c>
       <c r="K185">
-        <v>0.48859752487661134</v>
+        <v>0.14619572792262572</v>
       </c>
       <c r="L185">
-        <v>0.48758410358333487</v>
+        <v>0.18669172644235391</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186"/>
+      <c r="A186">
+        <v>0.97804035022705405</v>
+      </c>
       <c r="B186">
-        <v>0.44897942884268521</v>
+        <v>0.91588520780227212</v>
       </c>
       <c r="C186">
-        <v>0.51220800107408371</v>
+        <v>0.91551765042209887</v>
       </c>
       <c r="D186">
-        <v>0.4769745964610056</v>
+        <v>0.87542275109545908</v>
       </c>
       <c r="E186">
-        <v>0.51140247512338866</v>
+        <v>0.8538042720773743</v>
       </c>
       <c r="F186">
-        <v>0.51241589641666507</v>
+        <v>0.81330827355764612</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>0.17606522781034029</v>
       </c>
       <c r="H186">
-        <v>0.69230037151771262</v>
+        <v>0.11810782326430411</v>
       </c>
       <c r="I186">
-        <v>0.60212668706327954</v>
+        <v>0.11312093641546804</v>
       </c>
       <c r="J186">
-        <v>0.64098576718581335</v>
+        <v>0.16341016145741113</v>
       </c>
       <c r="K186">
-        <v>0.64520562620547628</v>
+        <v>0.21249437420495124</v>
       </c>
       <c r="L186">
-        <v>0.67754123344955142</v>
+        <v>0.27906028137325395</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187"/>
+      <c r="A187">
+        <v>4933.7250483790904</v>
+      </c>
       <c r="B187">
-        <v>806.63285679174783</v>
+        <v>3508.7738359247965</v>
       </c>
       <c r="C187">
-        <v>931.79046004685301</v>
+        <v>2893.4725748681722</v>
       </c>
       <c r="D187">
-        <v>782.53453934745335</v>
+        <v>4098.7368446167911</v>
       </c>
       <c r="E187">
-        <v>877.87684176377593</v>
+        <v>2261.7247029326263</v>
       </c>
       <c r="F187">
-        <v>696.13660664813574</v>
-      </c>
-      <c r="G187"/>
+        <v>1736.6633858049374</v>
+      </c>
+      <c r="G187">
+        <v>4933.725048379094</v>
+      </c>
       <c r="H187">
-        <v>806.63285679174703</v>
+        <v>3508.773835924806</v>
       </c>
       <c r="I187">
-        <v>931.7904600468521</v>
+        <v>2893.4725748680657</v>
       </c>
       <c r="J187">
-        <v>782.53453934745517</v>
+        <v>4098.736844616802</v>
       </c>
       <c r="K187">
-        <v>877.8768417637765</v>
+        <v>2261.7247029326318</v>
       </c>
       <c r="L187">
-        <v>696.13660664813597</v>
+        <v>1736.6633858049188</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>1.9599639845400538</v>
+        <v>1.9604449281262313</v>
       </c>
       <c r="B188">
-        <v>1.962909282705531</v>
+        <v>1.9606403107897845</v>
       </c>
       <c r="C188">
-        <v>1.9625131663474134</v>
+        <v>1.9607841917289059</v>
       </c>
       <c r="D188">
-        <v>1.9630001218039053</v>
+        <v>1.9605429336404412</v>
       </c>
       <c r="E188">
-        <v>1.962669933231199</v>
+        <v>1.9610134136185955</v>
       </c>
       <c r="F188">
-        <v>1.9633775832571752</v>
+        <v>1.961330914562091</v>
       </c>
       <c r="G188">
-        <v>1.9599639845400538</v>
+        <v>1.9604449281262313</v>
       </c>
       <c r="H188">
-        <v>1.962909282705531</v>
+        <v>1.9606403107897845</v>
       </c>
       <c r="I188">
-        <v>1.9625131663474134</v>
+        <v>1.9607841917289059</v>
       </c>
       <c r="J188">
-        <v>1.9630001218039053</v>
+        <v>1.9605429336404412</v>
       </c>
       <c r="K188">
-        <v>1.962669933231199</v>
+        <v>1.9610134136185955</v>
       </c>
       <c r="L188">
-        <v>1.9633775832571752</v>
+        <v>1.961330914562091</v>
       </c>
     </row>
     <row r="189">
@@ -3984,292 +3992,286 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="B191">
-        <v>0.98799306093635608</v>
+        <v>0.99780672679518934</v>
       </c>
       <c r="C191">
-        <v>0.97344758166762835</v>
+        <v>0.99503972075173175</v>
       </c>
       <c r="D191">
-        <v>0.98799160744862058</v>
+        <v>0.99712997544014326</v>
       </c>
       <c r="E191">
-        <v>0.98591673904718014</v>
+        <v>0.99566552686265941</v>
       </c>
       <c r="F191">
-        <v>0.98807486459206451</v>
+        <v>0.99547844692765397</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>0.01200693906364397</v>
+        <v>0.0021932732048107499</v>
       </c>
       <c r="I191">
-        <v>0.026552418332371673</v>
+        <v>0.0049602792482681766</v>
       </c>
       <c r="J191">
-        <v>0.012008392551379553</v>
+        <v>0.0028700245598567765</v>
       </c>
       <c r="K191">
-        <v>0.014083260952819834</v>
+        <v>0.0043344731373405089</v>
       </c>
       <c r="L191">
-        <v>0.011925135407935408</v>
+        <v>0.0045215530723459949</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>1.2273977354317161e-16</v>
+        <v>0</v>
       </c>
       <c r="B192">
-        <v>0.0082530491061632953</v>
+        <v>0.0015593674211993684</v>
       </c>
       <c r="C192">
-        <v>0.0099439131313970672</v>
+        <v>0.0018509501005679674</v>
       </c>
       <c r="D192">
-        <v>0.0068028077094408916</v>
+        <v>0.0017084351011453407</v>
       </c>
       <c r="E192">
-        <v>0.0099218535265699383</v>
+        <v>0.0030993185118075631</v>
       </c>
       <c r="F192">
-        <v>0.011066068948322978</v>
+        <v>0.0036435935877899808</v>
       </c>
       <c r="G192"/>
       <c r="H192">
-        <v>0.0082530491061632866</v>
+        <v>0.0015593674211993654</v>
       </c>
       <c r="I192">
-        <v>0.0099439131313970655</v>
+        <v>0.0018509501005679713</v>
       </c>
       <c r="J192">
-        <v>0.0068028077094408838</v>
+        <v>0.0017084351011453427</v>
       </c>
       <c r="K192">
-        <v>0.0099218535265699383</v>
+        <v>0.0030993185118075618</v>
       </c>
       <c r="L192">
-        <v>0.011066068948322986</v>
+        <v>0.0036435935877899609</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193">
-        <v>8147318274530358</v>
-      </c>
+      <c r="A193"/>
       <c r="B193">
-        <v>119.71249028417057</v>
+        <v>639.87916717391624</v>
       </c>
       <c r="C193">
-        <v>97.893813914569478</v>
+        <v>537.58322304118406</v>
       </c>
       <c r="D193">
-        <v>145.23291700241541</v>
+        <v>583.6510703694064</v>
       </c>
       <c r="E193">
-        <v>99.368201355419444</v>
+        <v>321.25305065273017</v>
       </c>
       <c r="F193">
-        <v>89.288695850914934</v>
+        <v>273.21336009142027</v>
       </c>
       <c r="G193"/>
       <c r="H193">
-        <v>1.4548488575788698</v>
+        <v>1.406514702688751</v>
       </c>
       <c r="I193">
-        <v>2.6702182512571087</v>
+        <v>2.6798557382752217</v>
       </c>
       <c r="J193">
-        <v>1.7652112281101815</v>
+        <v>1.6799143016510836</v>
       </c>
       <c r="K193">
-        <v>1.4194183491124894</v>
+        <v>1.3985245855911044</v>
       </c>
       <c r="L193">
-        <v>1.0776306802012661</v>
+        <v>1.2409597732025224</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194">
-        <v>0</v>
-      </c>
+      <c r="A194"/>
       <c r="B194">
         <v>0</v>
       </c>
       <c r="C194">
-        <v>7.3283518356047135e-286</v>
+        <v>0</v>
       </c>
       <c r="D194">
         <v>0</v>
       </c>
       <c r="E194">
-        <v>1.1157388808018076e-227</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>4.6931642933562634e-70</v>
+        <v>1.0155188108135914e-247</v>
       </c>
       <c r="G194"/>
       <c r="H194">
-        <v>0.14642152485395446</v>
+        <v>0.16080983040492403</v>
       </c>
       <c r="I194">
-        <v>0.0078825169449248719</v>
+        <v>0.0075432057647809537</v>
       </c>
       <c r="J194">
-        <v>0.078002402601180756</v>
+        <v>0.09356371540274909</v>
       </c>
       <c r="K194">
-        <v>0.1568402761114896</v>
+        <v>0.16277382969319681</v>
       </c>
       <c r="L194">
-        <v>0.28515792687406322</v>
+        <v>0.21615662028240851</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195">
-        <v>0.99999999999999956</v>
-      </c>
+      <c r="A195"/>
       <c r="B195">
-        <v>0.97177292767076406</v>
+        <v>0.99473559518995358</v>
       </c>
       <c r="C195">
-        <v>0.95389999821574589</v>
+        <v>0.99140547413624536</v>
       </c>
       <c r="D195">
-        <v>0.97463323043213956</v>
+        <v>0.99377383442807499</v>
       </c>
       <c r="E195">
-        <v>0.96638958877446079</v>
+        <v>0.98957150146484085</v>
       </c>
       <c r="F195">
-        <v>0.96597691535398555</v>
+        <v>0.9882911753963981</v>
       </c>
       <c r="G195"/>
       <c r="H195">
-        <v>-0.0042131942019480798</v>
+        <v>-0.00087785840042499353</v>
       </c>
       <c r="I195">
-        <v>0.0070048348804892004</v>
+        <v>0.001326032632781787</v>
       </c>
       <c r="J195">
-        <v>-0.0013499844651014767</v>
+        <v>-0.00048611645221149523</v>
       </c>
       <c r="K195">
-        <v>-0.0054438893198994684</v>
+        <v>-0.0017595522604780126</v>
       </c>
       <c r="L195">
-        <v>-0.010172813830143582</v>
+        <v>-0.0026657184589098867</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196">
-        <v>1</v>
-      </c>
+      <c r="A196"/>
       <c r="B196">
-        <v>1.0042131942019481</v>
+        <v>1.000877858400425</v>
       </c>
       <c r="C196">
-        <v>0.9929951651195108</v>
+        <v>0.99867396736721814</v>
       </c>
       <c r="D196">
-        <v>1.0013499844651017</v>
+        <v>1.0004861164522114</v>
       </c>
       <c r="E196">
-        <v>1.0054438893198994</v>
+        <v>1.0017595522604779</v>
       </c>
       <c r="F196">
-        <v>1.0101728138301436</v>
+        <v>1.0026657184589098</v>
       </c>
       <c r="G196"/>
       <c r="H196">
-        <v>0.028227072329236019</v>
+        <v>0.0052644048100464937</v>
       </c>
       <c r="I196">
-        <v>0.046100001784254149</v>
+        <v>0.0085945258637545666</v>
       </c>
       <c r="J196">
-        <v>0.025366769567860582</v>
+        <v>0.0062261655719250478</v>
       </c>
       <c r="K196">
-        <v>0.033610411225539136</v>
+        <v>0.01042849853515903</v>
       </c>
       <c r="L196">
-        <v>0.034023084646014397</v>
+        <v>0.011708824603601876</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197"/>
+      <c r="A197">
+        <v>5136.0011670881149</v>
+      </c>
       <c r="B197">
-        <v>441.60740149972736</v>
+        <v>250.67164373714442</v>
       </c>
       <c r="C197">
-        <v>408.80785250672392</v>
+        <v>681.84351645879553</v>
       </c>
       <c r="D197">
-        <v>643.65756865548565</v>
+        <v>529.61245567930314</v>
       </c>
       <c r="E197">
-        <v>292.94462653117574</v>
+        <v>378.76415331041704</v>
       </c>
       <c r="F197">
-        <v>65.392826554689265</v>
+        <v>189.25847357364748</v>
       </c>
       <c r="G197"/>
       <c r="H197">
-        <v>441.60740149973776</v>
+        <v>250.67164373715244</v>
       </c>
       <c r="I197">
-        <v>408.80785250672602</v>
+        <v>681.84351645875415</v>
       </c>
       <c r="J197">
-        <v>643.6575686554994</v>
+        <v>529.6124556792887</v>
       </c>
       <c r="K197">
-        <v>292.94462653117512</v>
+        <v>378.76415331042011</v>
       </c>
       <c r="L197">
-        <v>65.392826554689009</v>
+        <v>189.25847357366223</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>1.9599639845400538</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B198">
-        <v>1.9653503883163657</v>
+        <v>1.9694727255964</v>
       </c>
       <c r="C198">
-        <v>1.9657838110192889</v>
+        <v>1.9634492655265026</v>
       </c>
       <c r="D198">
-        <v>1.9636564176203859</v>
+        <v>1.9644533232888388</v>
       </c>
       <c r="E198">
-        <v>1.9680949956000802</v>
+        <v>1.9662468941484845</v>
       </c>
       <c r="F198">
-        <v>1.9969104965162752</v>
+        <v>1.9725777197932099</v>
       </c>
       <c r="G198">
         <v>1.9599639845400538</v>
       </c>
       <c r="H198">
-        <v>1.9653503883163657</v>
+        <v>1.9694727255964</v>
       </c>
       <c r="I198">
-        <v>1.9657838110192889</v>
+        <v>1.9634492655265026</v>
       </c>
       <c r="J198">
-        <v>1.9636564176203859</v>
+        <v>1.9644533232888388</v>
       </c>
       <c r="K198">
-        <v>1.9680949956000802</v>
+        <v>1.9662468941484845</v>
       </c>
       <c r="L198">
-        <v>1.9969104965162752</v>
+        <v>1.9725777197932099</v>
       </c>
     </row>
     <row r="199">
@@ -4312,292 +4314,286 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="B201">
-        <v>0.84679844655020842</v>
+        <v>0.97560574021305568</v>
       </c>
       <c r="C201">
-        <v>0.85918684689350078</v>
+        <v>0.97429813986961022</v>
       </c>
       <c r="D201">
-        <v>0.8885349781037144</v>
+        <v>0.97395873806858102</v>
       </c>
       <c r="E201">
-        <v>0.88565475595343712</v>
+        <v>0.96366712774490293</v>
       </c>
       <c r="F201">
-        <v>0.8764390505302645</v>
+        <v>0.94752514362668183</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0.15320155344979164</v>
+        <v>0.0243942597869444</v>
       </c>
       <c r="I201">
-        <v>0.14081315310649919</v>
+        <v>0.025701860130389803</v>
       </c>
       <c r="J201">
-        <v>0.11146502189628552</v>
+        <v>0.02604126193141908</v>
       </c>
       <c r="K201">
-        <v>0.11434524404656277</v>
+        <v>0.036332872255097175</v>
       </c>
       <c r="L201">
-        <v>0.12356094946973561</v>
+        <v>0.052474856373318099</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>1.2273977354317161e-16</v>
+        <v>0</v>
       </c>
       <c r="B202">
-        <v>0.026247615595513096</v>
+        <v>0.0044761619266304757</v>
       </c>
       <c r="C202">
-        <v>0.020446614542253293</v>
+        <v>0.0039533989265914653</v>
       </c>
       <c r="D202">
-        <v>0.019803241450995445</v>
+        <v>0.004798869679125563</v>
       </c>
       <c r="E202">
-        <v>0.025961421039669561</v>
+        <v>0.008358264371725932</v>
       </c>
       <c r="F202">
-        <v>0.029577227292977848</v>
+        <v>0.012367245995570741</v>
       </c>
       <c r="G202"/>
       <c r="H202">
-        <v>0.026247615595513096</v>
+        <v>0.0044761619266304765</v>
       </c>
       <c r="I202">
-        <v>0.020446614542253296</v>
+        <v>0.0039533989265914619</v>
       </c>
       <c r="J202">
-        <v>0.019803241450995442</v>
+        <v>0.0047988696791255664</v>
       </c>
       <c r="K202">
-        <v>0.025961421039669561</v>
+        <v>0.008358264371725932</v>
       </c>
       <c r="L202">
-        <v>0.029577227292977844</v>
+        <v>0.012367245995570741</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203">
-        <v>8147318274530358</v>
-      </c>
+      <c r="A203"/>
       <c r="B203">
-        <v>32.261918933884594</v>
+        <v>217.95586402019717</v>
       </c>
       <c r="C203">
-        <v>42.020983235047339</v>
+        <v>246.44569343009078</v>
       </c>
       <c r="D203">
-        <v>44.868158594261374</v>
+        <v>202.95586319111152</v>
       </c>
       <c r="E203">
-        <v>34.114263414169017</v>
+        <v>115.29512406962922</v>
       </c>
       <c r="F203">
-        <v>29.632224881956617</v>
+        <v>76.615694712147928</v>
       </c>
       <c r="G203"/>
       <c r="H203">
-        <v>5.8367798359551069</v>
+        <v>5.4498162011997815</v>
       </c>
       <c r="I203">
-        <v>6.8868688660172221</v>
+        <v>6.5012058250719997</v>
       </c>
       <c r="J203">
-        <v>5.6286251001945216</v>
+        <v>5.4265407632749527</v>
       </c>
       <c r="K203">
-        <v>4.4044293211777967</v>
+        <v>4.3469398237752381</v>
       </c>
       <c r="L203">
-        <v>4.1775704073204709</v>
+        <v>4.2430510715248708</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204">
-        <v>0</v>
-      </c>
+      <c r="A204"/>
       <c r="B204">
-        <v>7.880789453363267e-151</v>
+        <v>0</v>
       </c>
       <c r="C204">
-        <v>2.4459496834556564e-219</v>
+        <v>0</v>
       </c>
       <c r="D204">
-        <v>2.0529279179843803e-231</v>
+        <v>0</v>
       </c>
       <c r="E204">
-        <v>1.0056711670714299e-156</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.5114875245435712e-139</v>
+        <v>0</v>
       </c>
       <c r="G204"/>
       <c r="H204">
-        <v>7.5057866925377665e-09</v>
+        <v>5.4289093782964424e-08</v>
       </c>
       <c r="I204">
-        <v>1.0330700259681585e-11</v>
+        <v>8.7820675192257372e-11</v>
       </c>
       <c r="J204">
-        <v>2.4290881754686948e-08</v>
+        <v>6.0710713619908048e-08</v>
       </c>
       <c r="K204">
-        <v>1.2089969752035579e-05</v>
+        <v>1.4078244955519945e-05</v>
       </c>
       <c r="L204">
-        <v>3.1998272139535544e-05</v>
+        <v>2.2470002713349324e-05</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205">
-        <v>0.99999999999999956</v>
-      </c>
+      <c r="A205"/>
       <c r="B205">
-        <v>0.79528243756889705</v>
+        <v>0.96682926570607375</v>
       </c>
       <c r="C205">
-        <v>0.81906136730261636</v>
+        <v>0.96654765674702026</v>
       </c>
       <c r="D205">
-        <v>0.84966886998776614</v>
+        <v>0.96455040182100626</v>
       </c>
       <c r="E205">
-        <v>0.83469209102344188</v>
+        <v>0.94728127613081992</v>
       </c>
       <c r="F205">
-        <v>0.81839955090686978</v>
+        <v>0.92327961165269212</v>
       </c>
       <c r="G205"/>
       <c r="H205">
-        <v>0.10168554446848033</v>
+        <v>0.015617785279962472</v>
       </c>
       <c r="I205">
-        <v>0.10068767351561478</v>
+        <v>0.01795137700779979</v>
       </c>
       <c r="J205">
-        <v>0.07259891378033731</v>
+        <v>0.016632925683844314</v>
       </c>
       <c r="K205">
-        <v>0.063382579116567528</v>
+        <v>0.019947020641014158</v>
       </c>
       <c r="L205">
-        <v>0.065521449846340868</v>
+        <v>0.028229324399328435</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206">
-        <v>1</v>
-      </c>
+      <c r="A206"/>
       <c r="B206">
-        <v>0.89831445553151978</v>
+        <v>0.98438221472003762</v>
       </c>
       <c r="C206">
-        <v>0.89931232648438519</v>
+        <v>0.98204862299220019</v>
       </c>
       <c r="D206">
-        <v>0.92740108621966266</v>
+        <v>0.98336707431615578</v>
       </c>
       <c r="E206">
-        <v>0.93661742088343236</v>
+        <v>0.98005297935898594</v>
       </c>
       <c r="F206">
-        <v>0.93447855015365922</v>
+        <v>0.97177067560067154</v>
       </c>
       <c r="G206"/>
       <c r="H206">
-        <v>0.20471756243110295</v>
+        <v>0.033170734293926328</v>
       </c>
       <c r="I206">
-        <v>0.18093863269738361</v>
+        <v>0.03345234325297982</v>
       </c>
       <c r="J206">
-        <v>0.15033113001223372</v>
+        <v>0.035449598178993846</v>
       </c>
       <c r="K206">
-        <v>0.165307908976558</v>
+        <v>0.052718723869180195</v>
       </c>
       <c r="L206">
-        <v>0.18160044909313036</v>
+        <v>0.076720388347307766</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207"/>
+      <c r="A207">
+        <v>5136.0011670881149</v>
+      </c>
       <c r="B207">
-        <v>870.49601801973142</v>
+        <v>3163.0685898381439</v>
       </c>
       <c r="C207">
-        <v>955.04393738769613</v>
+        <v>4777.3595097601601</v>
       </c>
       <c r="D207">
-        <v>896.56516355236204</v>
+        <v>4179.6366678455834</v>
       </c>
       <c r="E207">
-        <v>778.66535822367359</v>
+        <v>5015.2772952045934</v>
       </c>
       <c r="F207">
-        <v>1015.1467896169561</v>
+        <v>4752.1770367226773</v>
       </c>
       <c r="G207"/>
       <c r="H207">
-        <v>870.4960180197329</v>
+        <v>3163.0685898381121</v>
       </c>
       <c r="I207">
-        <v>955.04393738769522</v>
+        <v>4777.3595097602574</v>
       </c>
       <c r="J207">
-        <v>896.56516355236465</v>
+        <v>4179.6366678454806</v>
       </c>
       <c r="K207">
-        <v>778.66535822367405</v>
+        <v>5015.2772952045998</v>
       </c>
       <c r="L207">
-        <v>1015.1467896169572</v>
+        <v>4752.1770367226736</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>1.9599639845400538</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B208">
-        <v>1.9626929080033364</v>
+        <v>1.9607142571780498</v>
       </c>
       <c r="C208">
-        <v>1.9624510213152591</v>
+        <v>1.9604606735886174</v>
       </c>
       <c r="D208">
-        <v>1.9626134545763743</v>
+        <v>1.9605317244808198</v>
       </c>
       <c r="E208">
-        <v>1.9630152314129219</v>
+        <v>1.9604371057599648</v>
       </c>
       <c r="F208">
-        <v>1.9623036009590509</v>
+        <v>1.9604633062747407</v>
       </c>
       <c r="G208">
         <v>1.9599639845400538</v>
       </c>
       <c r="H208">
-        <v>1.9626929080033364</v>
+        <v>1.9607142571780463</v>
       </c>
       <c r="I208">
-        <v>1.9624510213152591</v>
+        <v>1.9604606735886174</v>
       </c>
       <c r="J208">
-        <v>1.9626134545763743</v>
+        <v>1.9605317244808198</v>
       </c>
       <c r="K208">
-        <v>1.9630152314129219</v>
+        <v>1.9604371057599648</v>
       </c>
       <c r="L208">
-        <v>1.9623036009590509</v>
+        <v>1.9604633062747407</v>
       </c>
     </row>
     <row r="209">
@@ -4640,114 +4636,114 @@
     </row>
     <row r="211">
       <c r="A211">
-        <v>0.74317172970523226</v>
+        <v>0.96073878237322885</v>
       </c>
       <c r="B211">
-        <v>0.72332124816188836</v>
+        <v>0.92755013910036843</v>
       </c>
       <c r="C211">
-        <v>0.25682827029476779</v>
+        <v>0.039261217626771115</v>
       </c>
       <c r="D211">
-        <v>0.27667875183811169</v>
+        <v>0.072449860899631527</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.027827471311834245</v>
+        <v>0.0048441016528542732</v>
       </c>
       <c r="B212">
-        <v>0.015887652688701893</v>
+        <v>0.004689791075557127</v>
       </c>
       <c r="C212">
-        <v>0.027827471311834245</v>
+        <v>0.0048441016528542706</v>
       </c>
       <c r="D212">
-        <v>0.015887652688701889</v>
+        <v>0.0046897910755571278</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>26.706405385428681</v>
+        <v>198.33167245925486</v>
       </c>
       <c r="B213">
-        <v>45.527257067764339</v>
+        <v>197.7806951645878</v>
       </c>
       <c r="C213">
-        <v>9.2293068032216752</v>
+        <v>8.1049532896646355</v>
       </c>
       <c r="D213">
-        <v>17.414702930588668</v>
+        <v>15.448419712604101</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>4.0465360059776308e-118</v>
+        <v>0</v>
       </c>
       <c r="B214">
-        <v>8.1600892144938897e-250</v>
+        <v>0</v>
       </c>
       <c r="C214">
-        <v>1.6744563940172601e-19</v>
+        <v>8.4676214465384565e-16</v>
       </c>
       <c r="D214">
-        <v>8.4650058086150642e-60</v>
+        <v>1.5726782427110924e-52</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>0.68856247388483005</v>
+        <v>0.95123953279706486</v>
       </c>
       <c r="B215">
-        <v>0.69214573692665904</v>
+        <v>0.91835590239963028</v>
       </c>
       <c r="C215">
-        <v>0.20221901447436555</v>
+        <v>0.029761968050607171</v>
       </c>
       <c r="D215">
-        <v>0.24550324060288239</v>
+        <v>0.063255624198893357</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>0.79778098552563448</v>
+        <v>0.97023803194939284</v>
       </c>
       <c r="B216">
-        <v>0.75449675939711769</v>
+        <v>0.93674437580110659</v>
       </c>
       <c r="C216">
-        <v>0.31143752611517006</v>
+        <v>0.048760467202935059</v>
       </c>
       <c r="D216">
-        <v>0.30785426307334102</v>
+        <v>0.081644097600369697</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>966.10963823180418</v>
+        <v>2306.502796715783</v>
       </c>
       <c r="B217">
-        <v>1039.9296353594332</v>
+        <v>4607.8177492470522</v>
       </c>
       <c r="C217">
-        <v>966.10963823180452</v>
+        <v>2306.5027967158558</v>
       </c>
       <c r="D217">
-        <v>1039.929635359435</v>
+        <v>4607.8177492470213</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>1.9624224999983544</v>
+        <v>1.9609930296501399</v>
       </c>
       <c r="B218">
-        <v>1.9622477810960079</v>
+        <v>1.9604789536697915</v>
       </c>
       <c r="C218">
-        <v>1.9624224999983544</v>
+        <v>1.9609930296501399</v>
       </c>
       <c r="D218">
-        <v>1.9622477810960079</v>
+        <v>1.9604789536697915</v>
       </c>
     </row>
     <row r="219">
@@ -4766,114 +4762,114 @@
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.43487152390581529</v>
+        <v>0.91439127465812309</v>
       </c>
       <c r="B221">
-        <v>0.41208506238695702</v>
+        <v>0.84783320330236012</v>
       </c>
       <c r="C221">
-        <v>0.56512847609418471</v>
+        <v>0.08560872534187694</v>
       </c>
       <c r="D221">
-        <v>0.58791493761304303</v>
+        <v>0.15216679669763988</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>0.031348538860613444</v>
+        <v>0.0068526540690754274</v>
       </c>
       <c r="B222">
-        <v>0.017354884155798913</v>
+        <v>0.0062644177593186674</v>
       </c>
       <c r="C222">
-        <v>0.031348538860613437</v>
+        <v>0.0068526540690754308</v>
       </c>
       <c r="D222">
-        <v>0.017354884155798913</v>
+        <v>0.0062644177593186657</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>13.872146508626958</v>
+        <v>133.43607680191778</v>
       </c>
       <c r="B223">
-        <v>23.744616137311642</v>
+        <v>135.34110205871269</v>
       </c>
       <c r="C223">
-        <v>18.027266872211921</v>
+        <v>12.492783741734593</v>
       </c>
       <c r="D223">
-        <v>33.876050818616314</v>
+        <v>24.290652785932647</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>3.5936864220379298e-40</v>
+        <v>0</v>
       </c>
       <c r="B224">
-        <v>5.815778887756042e-100</v>
+        <v>0</v>
       </c>
       <c r="C224">
-        <v>3.5090586746909658e-63</v>
+        <v>6.0843934515245957e-35</v>
       </c>
       <c r="D224">
-        <v>3.3067578433367784e-170</v>
+        <v>5.4102949870421802e-123</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>0.37335558368326183</v>
+        <v>0.90095484210122001</v>
       </c>
       <c r="B225">
-        <v>0.37803055334804769</v>
+        <v>0.83555205807402</v>
       </c>
       <c r="C225">
-        <v>0.50361253587163124</v>
+        <v>0.072172292784973863</v>
       </c>
       <c r="D225">
-        <v>0.55386042857413365</v>
+        <v>0.13988565146929979</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>0.49638746412836876</v>
+        <v>0.92782770721502617</v>
       </c>
       <c r="B226">
-        <v>0.44613957142586635</v>
+        <v>0.86011434853070023</v>
       </c>
       <c r="C226">
-        <v>0.62664441631673817</v>
+        <v>0.099045157898780017</v>
       </c>
       <c r="D226">
-        <v>0.62196944665195242</v>
+        <v>0.16444794192597997</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>1007.0616402923646</v>
+        <v>2969.0949832968136</v>
       </c>
       <c r="B227">
-        <v>1041.8696555009547</v>
+        <v>4776.4873689367951</v>
       </c>
       <c r="C227">
-        <v>1007.0616402923646</v>
+        <v>2969.0949832967449</v>
       </c>
       <c r="D227">
-        <v>1041.8696555009553</v>
+        <v>4776.4873689368214</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>1.9623224066702074</v>
+        <v>1.9607632928004985</v>
       </c>
       <c r="B228">
-        <v>1.9622435236786342</v>
+        <v>1.9604607643018712</v>
       </c>
       <c r="C228">
-        <v>1.9623224066702074</v>
+        <v>1.9607632928004985</v>
       </c>
       <c r="D228">
-        <v>1.9622435236786342</v>
+        <v>1.9604607643018712</v>
       </c>
     </row>
     <row r="229">
@@ -4892,114 +4888,114 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>0.98126603594856943</v>
+        <v>0.9967231903041357</v>
       </c>
       <c r="B231">
-        <v>0.98326730673767349</v>
+        <v>0.99573504946453339</v>
       </c>
       <c r="C231">
-        <v>0.018733964051430563</v>
+        <v>0.0032768096958644098</v>
       </c>
       <c r="D231">
-        <v>0.016732693262326546</v>
+        <v>0.004264950535466468</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.0091556414788827884</v>
+        <v>0.0016313589778337333</v>
       </c>
       <c r="B232">
-        <v>0.0046448981602530519</v>
+        <v>0.0012360382385826548</v>
       </c>
       <c r="C232">
-        <v>0.0091556414788827832</v>
+        <v>0.0016313589778337353</v>
       </c>
       <c r="D232">
-        <v>0.0046448981602530562</v>
+        <v>0.0012360382385826496</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>107.17610974739782</v>
+        <v>610.97723054656876</v>
       </c>
       <c r="B233">
-        <v>211.68759202335355</v>
+        <v>805.58595873726915</v>
       </c>
       <c r="C233">
-        <v>2.0461661910462419</v>
+        <v>2.0086380376044835</v>
       </c>
       <c r="D233">
-        <v>3.6023810824336655</v>
+        <v>3.4505004799503909</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>4.9601217236825458e-307</v>
+        <v>0</v>
       </c>
       <c r="B234">
         <v>0</v>
       </c>
       <c r="C234">
-        <v>0.041362593317764033</v>
+        <v>0.045790458720697445</v>
       </c>
       <c r="D234">
-        <v>0.0003326187047908603</v>
+        <v>0.00057500859137663929</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>0.96326941656234821</v>
+        <v>0.99350820607285451</v>
       </c>
       <c r="B235">
-        <v>0.97415119125091998</v>
+        <v>0.99331050995119796</v>
       </c>
       <c r="C235">
-        <v>0.00073734466520938152</v>
+        <v>6.1825464583175477e-05</v>
       </c>
       <c r="D235">
-        <v>0.0076165777755730218</v>
+        <v>0.0018404110221310736</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.99926265533479064</v>
+        <v>0.99993817453541689</v>
       </c>
       <c r="B236">
-        <v>0.99238342222442699</v>
+        <v>0.99815958897786883</v>
       </c>
       <c r="C236">
-        <v>0.036730583437651745</v>
+        <v>0.0064917939271456442</v>
       </c>
       <c r="D236">
-        <v>0.02584880874908007</v>
+        <v>0.0066894900488018629</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>419.74550348372202</v>
+        <v>221.3339040204759</v>
       </c>
       <c r="B237">
-        <v>898.32478307040776</v>
+        <v>1505.5991532451285</v>
       </c>
       <c r="C237">
-        <v>419.74550348372725</v>
+        <v>221.33390402047132</v>
       </c>
       <c r="D237">
-        <v>898.32478307039605</v>
+        <v>1505.5991532453872</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>1.965631728561003</v>
+        <v>1.9707399014963454</v>
       </c>
       <c r="B238">
-        <v>1.9626082579724144</v>
+        <v>1.9615408631011166</v>
       </c>
       <c r="C238">
-        <v>1.965631728561003</v>
+        <v>1.9707399014963454</v>
       </c>
       <c r="D238">
-        <v>1.9626082579724144</v>
+        <v>1.9615408631011166</v>
       </c>
     </row>
     <row r="239">
@@ -5018,114 +5014,114 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>0.84069071044038302</v>
+        <v>0.97605669026514774</v>
       </c>
       <c r="B241">
-        <v>0.88132638271348129</v>
+        <v>0.96856587099931946</v>
       </c>
       <c r="C241">
-        <v>0.15930928955961701</v>
+        <v>0.023943309734852251</v>
       </c>
       <c r="D241">
-        <v>0.11867361728651879</v>
+        <v>0.031434129000680461</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>0.022953053660222954</v>
+        <v>0.0037382482770927073</v>
       </c>
       <c r="B242">
-        <v>0.011479270458188893</v>
+        <v>0.0032058064390978087</v>
       </c>
       <c r="C242">
-        <v>0.022953053660222957</v>
+        <v>0.0037382482770927095</v>
       </c>
       <c r="D242">
-        <v>0.011479270458188893</v>
+        <v>0.0032058064390978109</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>36.626530085505713</v>
+        <v>261.10001741891847</v>
       </c>
       <c r="B243">
-        <v>76.775469828291676</v>
+        <v>302.12861861737895</v>
       </c>
       <c r="C243">
-        <v>6.9406577407038377</v>
+        <v>6.4049543957720525</v>
       </c>
       <c r="D243">
-        <v>10.338080082594566</v>
+        <v>9.8053733429791112</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>7.7540394060818142e-181</v>
+        <v>0</v>
       </c>
       <c r="B244">
         <v>0</v>
       </c>
       <c r="C244">
-        <v>7.4397839484978048e-12</v>
+        <v>1.7700430229672519e-10</v>
       </c>
       <c r="D244">
-        <v>7.0309584346047304e-24</v>
+        <v>1.8960600033730363e-22</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>0.79564327874248775</v>
+        <v>0.96872655072631397</v>
       </c>
       <c r="B245">
-        <v>0.85880038410047221</v>
+        <v>0.9622807240675455</v>
       </c>
       <c r="C245">
-        <v>0.11426185786172172</v>
+        <v>0.016613170196018521</v>
       </c>
       <c r="D245">
-        <v>0.096147618673509724</v>
+        <v>0.02514898206890652</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>0.88573814213827828</v>
+        <v>0.98338682980398151</v>
       </c>
       <c r="B246">
-        <v>0.90385238132649037</v>
+        <v>0.97485101793109341</v>
       </c>
       <c r="C246">
-        <v>0.20435672125751231</v>
+        <v>0.031273449273685985</v>
       </c>
       <c r="D246">
-        <v>0.14119961589952784</v>
+        <v>0.037719275932454402</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>904.59057846629423</v>
+        <v>2682.36986960678</v>
       </c>
       <c r="B247">
-        <v>1008.2154582876856</v>
+        <v>4042.6206192747673</v>
       </c>
       <c r="C247">
-        <v>904.5905784662915</v>
+        <v>2682.3698696067063</v>
       </c>
       <c r="D247">
-        <v>1008.2154582876843</v>
+        <v>4042.6206192746627</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>1.9625899178705497</v>
+        <v>1.9608487707334645</v>
       </c>
       <c r="B248">
-        <v>1.9623197044669194</v>
+        <v>1.9605509724856407</v>
       </c>
       <c r="C248">
-        <v>1.9625899178705497</v>
+        <v>1.9608487707334645</v>
       </c>
       <c r="D248">
-        <v>1.9623197044669194</v>
+        <v>1.9605509724856407</v>
       </c>
     </row>
     <row r="249">
@@ -5144,114 +5140,114 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>0.54549337583148549</v>
+        <v>0.94388779754302043</v>
       </c>
       <c r="B251">
-        <v>0.73379149614506023</v>
+        <v>0.93781038757810808</v>
       </c>
       <c r="C251">
-        <v>0.45450662416851439</v>
+        <v>0.056112202456979635</v>
       </c>
       <c r="D251">
-        <v>0.26620850385493977</v>
+        <v>0.062189612421892047</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>0.085939943587332715</v>
+        <v>0.015338423139785465</v>
       </c>
       <c r="B252">
-        <v>0.01404152534114674</v>
+        <v>0.0036728195905964141</v>
       </c>
       <c r="C252">
-        <v>0.085939943587332715</v>
+        <v>0.015338423139785465</v>
       </c>
       <c r="D252">
-        <v>0.01404152534114674</v>
+        <v>0.0036728195905964141</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>6.3473787980457734</v>
+        <v>61.5374728510862</v>
       </c>
       <c r="B253">
-        <v>52.258674062623818</v>
+        <v>255.33799426990666</v>
       </c>
       <c r="C253">
-        <v>5.2886539738840055</v>
+        <v>3.6582771218140007</v>
       </c>
       <c r="D253">
-        <v>18.958659930972935</v>
+        <v>16.932389649934677</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>3.2478711899418603e-10</v>
+        <v>0</v>
       </c>
       <c r="B254">
-        <v>7.2210394766534668e-295</v>
+        <v>0</v>
       </c>
       <c r="C254">
-        <v>1.4978771970040332e-07</v>
+        <v>0.000256461704926183</v>
       </c>
       <c r="D254">
-        <v>3.3792169155543237e-69</v>
+        <v>1.2639518504563054e-62</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>0.3768605363173021</v>
+        <v>0.91381795429273727</v>
       </c>
       <c r="B255">
-        <v>0.70623897294632554</v>
+        <v>0.93061009662451344</v>
       </c>
       <c r="C255">
-        <v>0.285873784654331</v>
+        <v>0.026042359206696432</v>
       </c>
       <c r="D255">
-        <v>0.23865598065620505</v>
+        <v>0.054989321468297436</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>0.71412621534566889</v>
+        <v>0.9739576407933036</v>
       </c>
       <c r="B256">
-        <v>0.76134401934379492</v>
+        <v>0.94501067853170273</v>
       </c>
       <c r="C256">
-        <v>0.62313946368269779</v>
+        <v>0.086182045707262844</v>
       </c>
       <c r="D256">
-        <v>0.29376102705367452</v>
+        <v>0.069389903375486658</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B257">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C257">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D257">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B258">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C258">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D258">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="259">
@@ -5270,114 +5266,114 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>0.59269187915742805</v>
+        <v>0.94947719049720158</v>
       </c>
       <c r="B261">
-        <v>0.40814662678416369</v>
+        <v>0.86325226654738607</v>
       </c>
       <c r="C261">
-        <v>0.40730812084257206</v>
+        <v>0.05052280950279836</v>
       </c>
       <c r="D261">
-        <v>0.59185337321583642</v>
+        <v>0.13674773345261387</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>0.086994419953190738</v>
+        <v>0.013016620302965281</v>
       </c>
       <c r="B262">
-        <v>0.015553422225005099</v>
+        <v>0.0050699704134209121</v>
       </c>
       <c r="C262">
-        <v>0.086994419953190738</v>
+        <v>0.013016620302965281</v>
       </c>
       <c r="D262">
-        <v>0.015553422225005099</v>
+        <v>0.0050699704134209121</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>6.8129873097187037</v>
+        <v>72.943449866237842</v>
       </c>
       <c r="B263">
-        <v>26.241596278919889</v>
+        <v>170.26771285730544</v>
       </c>
       <c r="C263">
-        <v>4.6820028349143907</v>
+        <v>3.8814076409134324</v>
       </c>
       <c r="D263">
-        <v>38.05293553108325</v>
+        <v>26.972096935836891</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>1.6044442838844986e-11</v>
+        <v>0</v>
       </c>
       <c r="B264">
-        <v>3.2679050033044991e-117</v>
+        <v>0</v>
       </c>
       <c r="C264">
-        <v>3.211208324892209e-06</v>
+        <v>0.00010515562798679332</v>
       </c>
       <c r="D264">
-        <v>4.4232954243365041e-200</v>
+        <v>5.7326521893692635e-150</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>0.42198992793159296</v>
+        <v>0.92395906985392828</v>
       </c>
       <c r="B265">
-        <v>0.37762743344422051</v>
+        <v>0.85331296481957675</v>
       </c>
       <c r="C265">
-        <v>0.23660616961673694</v>
+        <v>0.025004688859525094</v>
       </c>
       <c r="D265">
-        <v>0.56133417987589318</v>
+        <v>0.12680843172480455</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>0.76339383038326314</v>
+        <v>0.97499531114047489</v>
       </c>
       <c r="B266">
-        <v>0.43866582012410688</v>
+        <v>0.8731915682751954</v>
       </c>
       <c r="C266">
-        <v>0.57801007206840715</v>
+        <v>0.076040930146071634</v>
       </c>
       <c r="D266">
-        <v>0.62237256655577966</v>
+        <v>0.1466870351804232</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B267">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C267">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D267">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B268">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C268">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D268">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="269">
@@ -5396,44 +5392,44 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>0.98946829268292691</v>
+        <v>0.99869100346020756</v>
       </c>
       <c r="B271">
-        <v>0.98261411914099173</v>
+        <v>0.99600328918214287</v>
       </c>
       <c r="C271">
-        <v>0.010531707317073171</v>
+        <v>0.0013089965397923876</v>
       </c>
       <c r="D271">
-        <v>0.017385880859008399</v>
+        <v>0.0039967108178571749</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>0.010402479020324219</v>
+        <v>0.0013067298774168334</v>
       </c>
       <c r="B272">
-        <v>0.0041727737285031001</v>
+        <v>0.00096783270746721725</v>
       </c>
       <c r="C272">
-        <v>0.010402479020324219</v>
+        <v>0.0013067298774168334</v>
       </c>
       <c r="D272">
-        <v>0.0041727737285031001</v>
+        <v>0.00096783270746721725</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>95.118508842913073</v>
+        <v>764.26736751013721</v>
       </c>
       <c r="B273">
-        <v>235.48224348447599</v>
+        <v>1029.1068709474048</v>
       </c>
       <c r="C273">
-        <v>1.012422836565829</v>
+        <v>1.0017346066809423</v>
       </c>
       <c r="D273">
-        <v>4.1665045818923998</v>
+        <v>4.1295471696926018</v>
       </c>
     </row>
     <row r="274">
@@ -5444,66 +5440,66 @@
         <v>0</v>
       </c>
       <c r="C274">
-        <v>0.31156827482203087</v>
+        <v>0.31651897986823541</v>
       </c>
       <c r="D274">
-        <v>3.3463551991209754e-05</v>
+        <v>3.6924810325176772e-05</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>0.96905636893758063</v>
+        <v>0.99612925625671145</v>
       </c>
       <c r="B275">
-        <v>0.97442623056305011</v>
+        <v>0.99410592479593363</v>
       </c>
       <c r="C275">
-        <v>-0.0098802164282730809</v>
+        <v>-0.0012527506637037564</v>
       </c>
       <c r="D275">
-        <v>0.0091979922810668333</v>
+        <v>0.0020993464316479502</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1.0098802164282732</v>
+        <v>1.0012527506637037</v>
       </c>
       <c r="B276">
-        <v>0.99080200771893334</v>
+        <v>0.99790065356835211</v>
       </c>
       <c r="C276">
-        <v>0.030943631062419423</v>
+        <v>0.0038707437432885317</v>
       </c>
       <c r="D276">
-        <v>0.025573769436949965</v>
+        <v>0.0058940752040663996</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B277">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C277">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D277">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B278">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C278">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D278">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="279">
@@ -5522,114 +5518,114 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>0.87234645232815955</v>
+        <v>0.98373480295394899</v>
       </c>
       <c r="B281">
-        <v>0.87544775792978446</v>
+        <v>0.97080192481467065</v>
       </c>
       <c r="C281">
-        <v>0.12765354767184037</v>
+        <v>0.01626519704605095</v>
       </c>
       <c r="D281">
-        <v>0.12455224207021551</v>
+        <v>0.029198075185329259</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>0.029738006334931625</v>
+        <v>0.0042166191293097994</v>
       </c>
       <c r="B282">
-        <v>0.010473831577944782</v>
+        <v>0.0025853926983137698</v>
       </c>
       <c r="C282">
-        <v>0.029738006334931625</v>
+        <v>0.0042166191293097994</v>
       </c>
       <c r="D282">
-        <v>0.010473831577944782</v>
+        <v>0.0025853926983137698</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>29.334395941111271</v>
+        <v>233.29942135773888</v>
       </c>
       <c r="B283">
-        <v>83.58428827261784</v>
+        <v>375.49495883075775</v>
       </c>
       <c r="C283">
-        <v>4.2926061093037253</v>
+        <v>3.8574024703799443</v>
       </c>
       <c r="D283">
-        <v>11.891755289677445</v>
+        <v>11.293477855171735</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>9.0447031239044004e-139</v>
+        <v>0</v>
       </c>
       <c r="B284">
         <v>0</v>
       </c>
       <c r="C284">
-        <v>1.928532291281316e-05</v>
+        <v>0.00011600172742973607</v>
       </c>
       <c r="D284">
-        <v>1.0858633577075734e-30</v>
+        <v>3.1177316541131077e-29</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>0.81399402340604587</v>
+        <v>0.97546843325551436</v>
       </c>
       <c r="B285">
-        <v>0.85489582496525685</v>
+        <v>0.9657334537945258</v>
       </c>
       <c r="C285">
-        <v>0.069301118749726651</v>
+        <v>0.0079988273476163073</v>
       </c>
       <c r="D285">
-        <v>0.10400030910568787</v>
+        <v>0.02412960416518441</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>0.93069888125027322</v>
+        <v>0.99200117265238363</v>
       </c>
       <c r="B286">
-        <v>0.89599969089431208</v>
+        <v>0.9758703958348155</v>
       </c>
       <c r="C286">
-        <v>0.18600597659395407</v>
+        <v>0.024531566744485592</v>
       </c>
       <c r="D286">
-        <v>0.14510417503474315</v>
+        <v>0.034266546205474105</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B287">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C287">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D287">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B288">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C288">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D288">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="289">
@@ -5648,114 +5644,162 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>0.70389398847492846</v>
+        <v>0.9200670311127892</v>
       </c>
       <c r="B291">
-        <v>0.87228876861250804</v>
+        <v>0.9225266916029895</v>
       </c>
       <c r="C291">
-        <v>0.29610601152507154</v>
+        <v>0.95736962524352298</v>
       </c>
       <c r="D291">
-        <v>0.12771123138749196</v>
+        <v>0.079932968887210784</v>
+      </c>
+      <c r="E291">
+        <v>0.077473308397010526</v>
+      </c>
+      <c r="F291">
+        <v>0.042630374756477039</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>0.015277216614594918</v>
+        <v>0.0069163758171421324</v>
       </c>
       <c r="B292">
-        <v>0.02902405207805216</v>
+        <v>0.010344591583618385</v>
       </c>
       <c r="C292">
-        <v>0.01527721661459492</v>
+        <v>0.0040440223282784283</v>
       </c>
       <c r="D292">
-        <v>0.02902405207805216</v>
+        <v>0.0069163758171421385</v>
+      </c>
+      <c r="E292">
+        <v>0.010344591583618393</v>
+      </c>
+      <c r="F292">
+        <v>0.0040440223282784257</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>46.074753420886317</v>
+        <v>133.02733330835161</v>
       </c>
       <c r="B293">
-        <v>30.053996811566098</v>
+        <v>89.179614694880328</v>
       </c>
       <c r="C293">
-        <v>19.382196312002929</v>
+        <v>236.73697806982256</v>
       </c>
       <c r="D293">
-        <v>4.4001861299052223</v>
+        <v>11.557059795550447</v>
+      </c>
+      <c r="E293">
+        <v>7.4892573351756671</v>
+      </c>
+      <c r="F293">
+        <v>10.541577492878272</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>6.1131400613592811e-251</v>
+        <v>0</v>
       </c>
       <c r="B294">
-        <v>5.4473942486609328e-84</v>
+        <v>0</v>
       </c>
       <c r="C294">
-        <v>1.9206956382316594e-71</v>
+        <v>0</v>
       </c>
       <c r="D294">
-        <v>1.6172529814652186e-05</v>
+        <v>3.3719462790769272e-30</v>
+      </c>
+      <c r="E294">
+        <v>1.0501043844615037e-13</v>
+      </c>
+      <c r="F294">
+        <v>2.1302052009450832e-25</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>0.67391542293586437</v>
+        <v>0.9065051897709967</v>
       </c>
       <c r="B295">
-        <v>0.81511915361138221</v>
+        <v>0.90223887476745368</v>
       </c>
       <c r="C295">
-        <v>0.2661274459860074</v>
+        <v>0.94943924901256915</v>
       </c>
       <c r="D295">
-        <v>0.07054161638636619</v>
+        <v>0.066371127545418296</v>
+      </c>
+      <c r="E295">
+        <v>0.05718549156147474</v>
+      </c>
+      <c r="F295">
+        <v>0.03469999852552326</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>0.73387255401399254</v>
+        <v>0.9336288724545817</v>
       </c>
       <c r="B296">
-        <v>0.92945838361363387</v>
+        <v>0.94281450843852532</v>
       </c>
       <c r="C296">
-        <v>0.32608457706413568</v>
+        <v>0.96530000147447681</v>
       </c>
       <c r="D296">
-        <v>0.18488084638861774</v>
+        <v>0.093494810229003272</v>
+      </c>
+      <c r="E296">
+        <v>0.09776112523254632</v>
+      </c>
+      <c r="F296">
+        <v>0.050560750987430819</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1014.3428045484849</v>
+        <v>2738.5881495608492</v>
       </c>
       <c r="B297">
-        <v>244.0402268535457</v>
+        <v>1919.9053958494578</v>
       </c>
       <c r="C297">
-        <v>1014.342804548484</v>
+        <v>2264.8181990424264</v>
       </c>
       <c r="D297">
-        <v>244.0402268535457</v>
+        <v>2738.5881495607414</v>
+      </c>
+      <c r="E297">
+        <v>1919.905395849388</v>
+      </c>
+      <c r="F297">
+        <v>2264.8181990424932</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>1.9623054575546459</v>
+        <v>1.9608305997744742</v>
       </c>
       <c r="B298">
-        <v>1.9697323739422707</v>
+        <v>1.9612003694436231</v>
       </c>
       <c r="C298">
-        <v>1.9623054575546459</v>
+        <v>1.9610119794590277</v>
       </c>
       <c r="D298">
-        <v>1.9697323739422707</v>
+        <v>1.9608305997744742</v>
+      </c>
+      <c r="E298">
+        <v>1.9612003694436231</v>
+      </c>
+      <c r="F298">
+        <v>1.9610119794590277</v>
       </c>
     </row>
     <row r="299">
@@ -5771,117 +5815,171 @@
       <c r="D299">
         <v>0</v>
       </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>0.4377059904174681</v>
+        <v>0.87822834809977868</v>
       </c>
       <c r="B301">
-        <v>0.29579408806112256</v>
+        <v>0.89847802696788759</v>
       </c>
       <c r="C301">
-        <v>0.56229400958253195</v>
+        <v>0.86127618478695944</v>
       </c>
       <c r="D301">
-        <v>0.70420591193887749</v>
+        <v>0.12177165190022125</v>
+      </c>
+      <c r="E301">
+        <v>0.10152197303211249</v>
+      </c>
+      <c r="F301">
+        <v>0.13872381521304067</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>0.016571986075519945</v>
+        <v>0.0082616120028582343</v>
       </c>
       <c r="B302">
-        <v>0.037568179165354834</v>
+        <v>0.011188181819149575</v>
       </c>
       <c r="C302">
-        <v>0.016571986075519941</v>
+        <v>0.0067573895696155612</v>
       </c>
       <c r="D302">
-        <v>0.037568179165354834</v>
+        <v>0.008261612002858236</v>
+      </c>
+      <c r="E302">
+        <v>0.011188181819149573</v>
+      </c>
+      <c r="F302">
+        <v>0.0067573895696155604</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>26.41240394620203</v>
+        <v>106.30229884869222</v>
       </c>
       <c r="B303">
-        <v>7.873527400920783</v>
+        <v>80.3059908652952</v>
       </c>
       <c r="C303">
-        <v>33.930393558147507</v>
+        <v>127.45693820283309</v>
       </c>
       <c r="D303">
-        <v>18.744744291155115</v>
+        <v>14.739454220083491</v>
+      </c>
+      <c r="E303">
+        <v>9.074036753527599</v>
+      </c>
+      <c r="F303">
+        <v>20.529201962368571</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>5.3080632169446105e-117</v>
+        <v>0</v>
       </c>
       <c r="B304">
-        <v>3.4746598654916379e-14</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>1.938661824113757e-168</v>
+        <v>0</v>
       </c>
       <c r="D304">
-        <v>2.612231299330885e-56</v>
+        <v>1.0963515441064492e-46</v>
+      </c>
+      <c r="E304">
+        <v>2.8226145877678177e-19</v>
+      </c>
+      <c r="F304">
+        <v>1.0579325925579214e-83</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>0.40518605766311255</v>
+        <v>0.8620257706664527</v>
       </c>
       <c r="B305">
-        <v>0.22193181347525781</v>
+        <v>0.87653541398272428</v>
       </c>
       <c r="C305">
-        <v>0.52977407682817645</v>
+        <v>0.84802234749849215</v>
       </c>
       <c r="D305">
-        <v>0.6303436373530128</v>
+        <v>0.10556907446689523</v>
+      </c>
+      <c r="E305">
+        <v>0.079579360046949141</v>
+      </c>
+      <c r="F305">
+        <v>0.12546997792457332</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>0.47022592317182366</v>
+        <v>0.89443092553310466</v>
       </c>
       <c r="B306">
-        <v>0.36965636264698731</v>
+        <v>0.9204206399530509</v>
       </c>
       <c r="C306">
-        <v>0.59481394233688745</v>
+        <v>0.87453002207542674</v>
       </c>
       <c r="D306">
-        <v>0.77806818652474219</v>
+        <v>0.13797422933354728</v>
+      </c>
+      <c r="E306">
+        <v>0.12346458601727585</v>
+      </c>
+      <c r="F306">
+        <v>0.15197765250150802</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>998.05410409432682</v>
+        <v>1938.6988416940549</v>
       </c>
       <c r="B307">
-        <v>388.6814528517898</v>
+        <v>1872.9958177659951</v>
       </c>
       <c r="C307">
-        <v>998.05410409432784</v>
+        <v>1671.5229845689159</v>
       </c>
       <c r="D307">
-        <v>388.68145285178906</v>
+        <v>1938.6988416940319</v>
+      </c>
+      <c r="E307">
+        <v>1872.9958177660089</v>
+      </c>
+      <c r="F307">
+        <v>1671.5229845689225</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>1.9623437170511409</v>
+        <v>1.9611883767623663</v>
       </c>
       <c r="B308">
-        <v>1.96608609272126</v>
+        <v>1.9612313546430407</v>
       </c>
       <c r="C308">
-        <v>1.9623437170511409</v>
+        <v>1.9613842226979044</v>
       </c>
       <c r="D308">
-        <v>1.96608609272126</v>
+        <v>1.9611883767623663</v>
+      </c>
+      <c r="E308">
+        <v>1.9612313546430407</v>
+      </c>
+      <c r="F308">
+        <v>1.9613842226979044</v>
       </c>
     </row>
     <row r="309">
@@ -5897,47 +5995,71 @@
       <c r="D309">
         <v>0</v>
       </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>0.98138352932923989</v>
+        <v>0.99365148817515059</v>
       </c>
       <c r="B311">
-        <v>0.99218205507668178</v>
+        <v>0.99682138461587511</v>
       </c>
       <c r="C311">
-        <v>0.018616470670760062</v>
+        <v>0.99768718279457969</v>
       </c>
       <c r="D311">
-        <v>0.0078179449233182919</v>
+        <v>0.0063485118248493844</v>
+      </c>
+      <c r="E311">
+        <v>0.0031786153841248479</v>
+      </c>
+      <c r="F311">
+        <v>0.002312817205420363</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>0.0044729396676983016</v>
+        <v>0.002007800672407922</v>
       </c>
       <c r="B312">
-        <v>0.0077706710105306023</v>
+        <v>0.0022317259601865474</v>
       </c>
       <c r="C312">
-        <v>0.0044729396676983016</v>
+        <v>0.00099673617704722304</v>
       </c>
       <c r="D312">
-        <v>0.0077706710105306031</v>
+        <v>0.0020078006724079224</v>
+      </c>
+      <c r="E312">
+        <v>0.0022317259601865422</v>
+      </c>
+      <c r="F312">
+        <v>0.00099673617704722174</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>219.40459792390698</v>
+        <v>494.89548530904756</v>
       </c>
       <c r="B313">
-        <v>127.68293159395162</v>
+        <v>446.65940281151364</v>
       </c>
       <c r="C313">
-        <v>4.162021411824627</v>
+        <v>1000.954119825543</v>
       </c>
       <c r="D313">
-        <v>1.0060836332825858</v>
+        <v>3.1619233483151086</v>
+      </c>
+      <c r="E313">
+        <v>1.424285705696213</v>
+      </c>
+      <c r="F313">
+        <v>2.320390549354757</v>
       </c>
     </row>
     <row r="314">
@@ -5948,66 +6070,96 @@
         <v>0</v>
       </c>
       <c r="C314">
-        <v>3.4117244988564326e-05</v>
+        <v>0</v>
       </c>
       <c r="D314">
-        <v>0.31460707691205714</v>
+        <v>0.0015764379246442995</v>
+      </c>
+      <c r="E314">
+        <v>0.15474072525508578</v>
+      </c>
+      <c r="F314">
+        <v>0.020416165405696546</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>0.97260664757401416</v>
+        <v>0.98971534310691778</v>
       </c>
       <c r="B315">
-        <v>0.97693424767315795</v>
+        <v>0.99244087575500961</v>
       </c>
       <c r="C315">
-        <v>0.0098395889155343461</v>
+        <v>0.99573247712592183</v>
       </c>
       <c r="D315">
-        <v>-0.007429862480205579</v>
+        <v>0.002412366756616555</v>
+      </c>
+      <c r="E315">
+        <v>-0.0012018934767405926</v>
+      </c>
+      <c r="F315">
+        <v>0.00035811153676247902</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>0.99016041108446562</v>
+        <v>0.9975876332433834</v>
       </c>
       <c r="B316">
-        <v>1.0074298624802056</v>
+        <v>1.0012018934767406</v>
       </c>
       <c r="C316">
-        <v>0.027393352425985777</v>
+        <v>0.99964188846323754</v>
       </c>
       <c r="D316">
-        <v>0.023065752326842163</v>
+        <v>0.010284656893082214</v>
+      </c>
+      <c r="E316">
+        <v>0.0075591242449902889</v>
+      </c>
+      <c r="F316">
+        <v>0.0042675228740782466</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>1053.7556041937817</v>
+        <v>5133.4404308972244</v>
       </c>
       <c r="B317">
-        <v>1050.2475023329621</v>
+        <v>827.59672648044182</v>
       </c>
       <c r="C317">
-        <v>1053.7556041937817</v>
+        <v>2077.7791918178505</v>
       </c>
       <c r="D317">
-        <v>1050.2475023329621</v>
+        <v>5133.4404308972225</v>
+      </c>
+      <c r="E317">
+        <v>827.59672648050093</v>
+      </c>
+      <c r="F317">
+        <v>2077.7791918179801</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>1.9622177823252756</v>
+        <v>1.9604262127835006</v>
       </c>
       <c r="B318">
-        <v>1.9622253191340175</v>
+        <v>1.9628345679589123</v>
       </c>
       <c r="C318">
-        <v>1.9622177823252756</v>
+        <v>1.9611063726497779</v>
       </c>
       <c r="D318">
-        <v>1.9622253191340175</v>
+        <v>1.9604262127835006</v>
+      </c>
+      <c r="E318">
+        <v>1.9628345679589123</v>
+      </c>
+      <c r="F318">
+        <v>1.9611063726497779</v>
       </c>
     </row>
     <row r="319">
@@ -6023,47 +6175,71 @@
       <c r="D319">
         <v>0</v>
       </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>0.87701649177836349</v>
+        <v>0.97174869855299995</v>
       </c>
       <c r="B321">
-        <v>0.83973508824968768</v>
+        <v>0.973494844481543</v>
       </c>
       <c r="C321">
-        <v>0.12298350822163646</v>
+        <v>0.97122355174223807</v>
       </c>
       <c r="D321">
-        <v>0.16026491175031229</v>
+        <v>0.028251301447000037</v>
+      </c>
+      <c r="E321">
+        <v>0.026505155518457068</v>
+      </c>
+      <c r="F321">
+        <v>0.028776448257761971</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>0.010941910547076602</v>
+        <v>0.0042456851674255525</v>
       </c>
       <c r="B322">
-        <v>0.029078569513725144</v>
+        <v>0.0062718591769960006</v>
       </c>
       <c r="C322">
-        <v>0.010941910547076605</v>
+        <v>0.003276681524872985</v>
       </c>
       <c r="D322">
-        <v>0.029078569513725148</v>
+        <v>0.0042456851674255525</v>
+      </c>
+      <c r="E322">
+        <v>0.0062718591769960093</v>
+      </c>
+      <c r="F322">
+        <v>0.0032766815248729824</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>80.152043649514184</v>
+        <v>228.87912321163401</v>
       </c>
       <c r="B323">
-        <v>28.878142986137298</v>
+        <v>155.21631098672287</v>
       </c>
       <c r="C323">
-        <v>11.239674067203415</v>
+        <v>296.4046228996533</v>
       </c>
       <c r="D323">
-        <v>5.5114441470261086</v>
+        <v>6.6541206737970917</v>
+      </c>
+      <c r="E323">
+        <v>4.2260444264553891</v>
+      </c>
+      <c r="F323">
+        <v>8.7821926053303159</v>
       </c>
     </row>
     <row r="324">
@@ -6071,69 +6247,99 @@
         <v>0</v>
       </c>
       <c r="B324">
-        <v>1.0022614440091768e-111</v>
+        <v>0</v>
       </c>
       <c r="C324">
-        <v>1.0284090375668856e-27</v>
+        <v>0</v>
       </c>
       <c r="D324">
-        <v>5.5111923915913405e-08</v>
+        <v>3.3085241721555741e-11</v>
+      </c>
+      <c r="E324">
+        <v>2.4641562613385557e-05</v>
+      </c>
+      <c r="F324">
+        <v>2.3264089747473695e-18</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>0.85554524618999805</v>
+        <v>0.96342434783678588</v>
       </c>
       <c r="B325">
-        <v>0.78261456828894405</v>
+        <v>0.96119623703229573</v>
       </c>
       <c r="C325">
-        <v>0.10151226263327101</v>
+        <v>0.96479945221589458</v>
       </c>
       <c r="D325">
-        <v>0.10314439178956872</v>
+        <v>0.019926950730785931</v>
+      </c>
+      <c r="E325">
+        <v>0.014206548069209742</v>
+      </c>
+      <c r="F325">
+        <v>0.022352348731418531</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>0.89848773736672893</v>
+        <v>0.98007304926921401</v>
       </c>
       <c r="B326">
-        <v>0.89685560821043131</v>
+        <v>0.98579345193079027</v>
       </c>
       <c r="C326">
-        <v>0.14445475381000192</v>
+        <v>0.97764765126858155</v>
       </c>
       <c r="D326">
-        <v>0.21738543171105587</v>
+        <v>0.036575652163214144</v>
+      </c>
+      <c r="E326">
+        <v>0.038803762967704394</v>
+      </c>
+      <c r="F326">
+        <v>0.035200547784105411</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>1019.31793820745</v>
+        <v>3403.0616577663886</v>
       </c>
       <c r="B327">
-        <v>541.925366496366</v>
+        <v>2485.3591281975314</v>
       </c>
       <c r="C327">
-        <v>1019.317938207447</v>
+        <v>4046.0354061706171</v>
       </c>
       <c r="D327">
-        <v>541.9253664963652</v>
+        <v>3403.0616577664259</v>
+      </c>
+      <c r="E327">
+        <v>2485.3591281973681</v>
+      </c>
+      <c r="F327">
+        <v>4046.0354061707371</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>1.9622940158382138</v>
+        <v>1.9606613274299205</v>
       </c>
       <c r="B328">
-        <v>1.964351098281591</v>
+        <v>1.9609189400100513</v>
       </c>
       <c r="C328">
-        <v>1.9622940158382138</v>
+        <v>1.96055047693183</v>
       </c>
       <c r="D328">
-        <v>1.964351098281591</v>
+        <v>1.9606613274299205</v>
+      </c>
+      <c r="E328">
+        <v>1.9609189400100513</v>
+      </c>
+      <c r="F328">
+        <v>1.96055047693183</v>
       </c>
     </row>
     <row r="329">
@@ -6149,165 +6355,171 @@
       <c r="D329">
         <v>0</v>
       </c>
+      <c r="E329">
+        <v>0</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>0.68747256190177686</v>
+        <v>0.92831513951039746</v>
       </c>
       <c r="B331">
-        <v>0.7322972114359676</v>
+        <v>0.93437827237975879</v>
       </c>
       <c r="C331">
-        <v>0.73784838907879924</v>
+        <v>0.94763728779374934</v>
       </c>
       <c r="D331">
-        <v>0.31252743809822314</v>
+        <v>0.071684860489602528</v>
       </c>
       <c r="E331">
-        <v>0.26770278856403229</v>
+        <v>0.065621727620241016</v>
       </c>
       <c r="F331">
-        <v>0.26215161092120065</v>
+        <v>0.052362712206250536</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>0.039811702218342092</v>
+        <v>0.0093669449648359545</v>
       </c>
       <c r="B332">
-        <v>0.025161753258350492</v>
+        <v>0.0069343612340862608</v>
       </c>
       <c r="C332">
-        <v>0.019353970157877348</v>
+        <v>0.0043556936112416934</v>
       </c>
       <c r="D332">
-        <v>0.039811702218342092</v>
+        <v>0.0093669449648359545</v>
       </c>
       <c r="E332">
-        <v>0.025161753258350492</v>
+        <v>0.0069343612340862608</v>
       </c>
       <c r="F332">
-        <v>0.019353970157877348</v>
+        <v>0.0043556936112416934</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>17.268102683261901</v>
+        <v>99.105433307801576</v>
       </c>
       <c r="B333">
-        <v>29.103584472713099</v>
+        <v>134.74612020307904</v>
       </c>
       <c r="C333">
-        <v>38.12387758480056</v>
+        <v>217.56288948974142</v>
       </c>
       <c r="D333">
-        <v>7.8501400513900945</v>
+        <v>7.6529605713187792</v>
       </c>
       <c r="E333">
-        <v>10.639274052780449</v>
+        <v>9.4632692767249491</v>
       </c>
       <c r="F333">
-        <v>13.545107736693556</v>
+        <v>12.021670227471144</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>4.9863418785687272e-59</v>
+        <v>0</v>
       </c>
       <c r="B334">
-        <v>3.7710186941143009e-137</v>
+        <v>0</v>
       </c>
       <c r="C334">
-        <v>1.4177307435109136e-200</v>
+        <v>0</v>
       </c>
       <c r="D334">
-        <v>1.0173691485386721e-14</v>
+        <v>2.3310998661320462e-14</v>
       </c>
       <c r="E334">
-        <v>3.5148592694192666e-25</v>
+        <v>4.4280810278077847e-21</v>
       </c>
       <c r="F334">
-        <v>1.1851995489453648e-38</v>
+        <v>7.5197424945828338e-33</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>0.60935335317609529</v>
+        <v>0.90995193722684209</v>
       </c>
       <c r="B335">
-        <v>0.68292438522740673</v>
+        <v>0.9207839704460119</v>
       </c>
       <c r="C335">
-        <v>0.69987169503688362</v>
+        <v>0.93909827286746472</v>
       </c>
       <c r="D335">
-        <v>0.23440822937254158</v>
+        <v>0.05332165820604718</v>
       </c>
       <c r="E335">
-        <v>0.21832996235547145</v>
+        <v>0.052027425686494086</v>
       </c>
       <c r="F335">
-        <v>0.22417491687928498</v>
+        <v>0.043823697279965906</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>0.76559177062745842</v>
+        <v>0.94667834179395283</v>
       </c>
       <c r="B336">
-        <v>0.78167003764452847</v>
+        <v>0.94797257431350568</v>
       </c>
       <c r="C336">
-        <v>0.77582508312071485</v>
+        <v>0.95617630272003395</v>
       </c>
       <c r="D336">
-        <v>0.39064664682390471</v>
+        <v>0.090048062773157883</v>
       </c>
       <c r="E336">
-        <v>0.31707561477259311</v>
+        <v>0.079216029553987946</v>
       </c>
       <c r="F336">
-        <v>0.30012830496311632</v>
+        <v>0.060901727132535166</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B337">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C337">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D337">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E337">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F337">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B338">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C338">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D338">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E338">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F338">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="339">
@@ -6332,162 +6544,162 @@
     </row>
     <row r="341">
       <c r="A341">
-        <v>0.44321599802300071</v>
+        <v>0.87562646916652709</v>
       </c>
       <c r="B341">
-        <v>0.42241444818790919</v>
+        <v>0.85709240813212906</v>
       </c>
       <c r="C341">
-        <v>0.41827377430297308</v>
+        <v>0.88287511061677404</v>
       </c>
       <c r="D341">
-        <v>0.55678400197699929</v>
+        <v>0.12437353083347294</v>
       </c>
       <c r="E341">
-        <v>0.5775855518120907</v>
+        <v>0.14290759186787072</v>
       </c>
       <c r="F341">
-        <v>0.58172622569702692</v>
+        <v>0.11712488938322592</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>0.042725128740368726</v>
+        <v>0.012107350302356951</v>
       </c>
       <c r="B342">
-        <v>0.027078876971505617</v>
+        <v>0.0091179116492408931</v>
       </c>
       <c r="C342">
-        <v>0.021656749602363492</v>
+        <v>0.0061328104262511896</v>
       </c>
       <c r="D342">
-        <v>0.042725128740368726</v>
+        <v>0.012107350302356951</v>
       </c>
       <c r="E342">
-        <v>0.027078876971505617</v>
+        <v>0.0091179116492408931</v>
       </c>
       <c r="F342">
-        <v>0.021656749602363492</v>
+        <v>0.0061328104262511896</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>10.373660913143819</v>
+        <v>72.32189102483207</v>
       </c>
       <c r="B343">
-        <v>15.599407930853436</v>
+        <v>94.000955602973605</v>
       </c>
       <c r="C343">
-        <v>19.313783553988412</v>
+        <v>143.95930238405398</v>
       </c>
       <c r="D343">
-        <v>13.031768853417717</v>
+        <v>10.272563998520882</v>
       </c>
       <c r="E343">
-        <v>21.32974541078157</v>
+        <v>15.673281050027329</v>
       </c>
       <c r="F343">
-        <v>26.861197380863686</v>
+        <v>19.098077592921943</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>4.4948243492914238e-24</v>
+        <v>0</v>
       </c>
       <c r="B344">
-        <v>1.6196552436428091e-49</v>
+        <v>0</v>
       </c>
       <c r="C344">
-        <v>2.1506055161182221e-71</v>
+        <v>0</v>
       </c>
       <c r="D344">
-        <v>4.2197833214779436e-36</v>
+        <v>1.6153916674062523e-24</v>
       </c>
       <c r="E344">
-        <v>3.3410893738259223e-84</v>
+        <v>4.0640403589364837e-54</v>
       </c>
       <c r="F344">
-        <v>1.6870778533334674e-121</v>
+        <v>1.315067850463676e-78</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>0.35938001352790039</v>
+        <v>0.85189090505734488</v>
       </c>
       <c r="B345">
-        <v>0.36927980876474231</v>
+        <v>0.83921741723091703</v>
       </c>
       <c r="C345">
-        <v>0.37577852671902517</v>
+        <v>0.8708521897128163</v>
       </c>
       <c r="D345">
-        <v>0.47294801748189896</v>
+        <v>0.10063796672429068</v>
       </c>
       <c r="E345">
-        <v>0.52445091238892383</v>
+        <v>0.12503260096665872</v>
       </c>
       <c r="F345">
-        <v>0.53923097811307907</v>
+        <v>0.10510196847926818</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>0.52705198251810104</v>
+        <v>0.89936203327570929</v>
       </c>
       <c r="B346">
-        <v>0.47554908761107606</v>
+        <v>0.87496739903334109</v>
       </c>
       <c r="C346">
-        <v>0.46076902188692098</v>
+        <v>0.89489803152073177</v>
       </c>
       <c r="D346">
-        <v>0.64061998647209961</v>
+        <v>0.1481090949426552</v>
       </c>
       <c r="E346">
-        <v>0.63072019123525758</v>
+        <v>0.16078258276908272</v>
       </c>
       <c r="F346">
-        <v>0.62422147328097477</v>
+        <v>0.12914781028718367</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B347">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C347">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D347">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E347">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F347">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B348">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C348">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D348">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E348">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F348">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="349">
@@ -6512,62 +6724,62 @@
     </row>
     <row r="351">
       <c r="A351">
-        <v>0.97486336162210363</v>
+        <v>0.99424821041422384</v>
       </c>
       <c r="B351">
-        <v>0.99112139485305306</v>
+        <v>0.99765273708765911</v>
       </c>
       <c r="C351">
-        <v>0.98078585689732445</v>
+        <v>0.99615654369170059</v>
       </c>
       <c r="D351">
-        <v>0.025136638377896182</v>
+        <v>0.0057517895857761613</v>
       </c>
       <c r="E351">
-        <v>0.0088786051469468552</v>
+        <v>0.0023472629123410032</v>
       </c>
       <c r="F351">
-        <v>0.019214143102675593</v>
+        <v>0.0038434563082994011</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>0.013667884905889631</v>
+        <v>0.002811615924821792</v>
       </c>
       <c r="B352">
-        <v>0.0051485634238767402</v>
+        <v>0.0013838868578896573</v>
       </c>
       <c r="C352">
-        <v>0.0060431151642626225</v>
+        <v>0.0012292780132003307</v>
       </c>
       <c r="D352">
-        <v>0.013667884905889631</v>
+        <v>0.002811615924821792</v>
       </c>
       <c r="E352">
-        <v>0.0051485634238767402</v>
+        <v>0.0013838868578896573</v>
       </c>
       <c r="F352">
-        <v>0.0060431151642626225</v>
+        <v>0.0012292780132003307</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>71.325107603300424</v>
+        <v>353.62163147416447</v>
       </c>
       <c r="B353">
-        <v>192.50445478765479</v>
+        <v>720.90628753351882</v>
       </c>
       <c r="C353">
-        <v>162.29805824278037</v>
+        <v>810.35903432315013</v>
       </c>
       <c r="D353">
-        <v>1.8391022861967874</v>
+        <v>2.0457237900090233</v>
       </c>
       <c r="E353">
-        <v>1.7244820381879429</v>
+        <v>1.6961378735256114</v>
       </c>
       <c r="F353">
-        <v>3.1795096701619938</v>
+        <v>3.1265964794190522</v>
       </c>
     </row>
     <row r="354">
@@ -6581,93 +6793,93 @@
         <v>0</v>
       </c>
       <c r="D354">
-        <v>0.066181301170419329</v>
+        <v>0.040834386222187824</v>
       </c>
       <c r="E354">
-        <v>0.084914043415433044</v>
+        <v>0.089920374760970423</v>
       </c>
       <c r="F354">
-        <v>0.0015182445633186964</v>
+        <v>0.0017783034584685127</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>0.94804400212961093</v>
+        <v>0.98873624550303973</v>
       </c>
       <c r="B355">
-        <v>0.98101879490539412</v>
+        <v>0.99493972933493058</v>
       </c>
       <c r="C355">
-        <v>0.96892795209633698</v>
+        <v>0.99374663513518968</v>
       </c>
       <c r="D355">
-        <v>-0.0016827211145964867</v>
+        <v>0.00023982467459208838</v>
       </c>
       <c r="E355">
-        <v>-0.0012239948007120999</v>
+        <v>-0.00036574484038754589</v>
       </c>
       <c r="F355">
-        <v>0.0073562383016880992</v>
+        <v>0.0014335477517885185</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1.0016827211145962</v>
+        <v>0.99976017532540795</v>
       </c>
       <c r="B356">
-        <v>1.001223994800712</v>
+        <v>1.0003657448403878</v>
       </c>
       <c r="C356">
-        <v>0.99264376169831192</v>
+        <v>0.9985664522482115</v>
       </c>
       <c r="D356">
-        <v>0.051955997870388848</v>
+        <v>0.011263754496960234</v>
       </c>
       <c r="E356">
-        <v>0.01898120509460581</v>
+        <v>0.0050602706650695519</v>
       </c>
       <c r="F356">
-        <v>0.031072047903663087</v>
+        <v>0.0062533648648102833</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B357">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C357">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D357">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E357">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F357">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B358">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C358">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D358">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E358">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F358">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="359">
@@ -6692,162 +6904,162 @@
     </row>
     <row r="361">
       <c r="A361">
-        <v>0.89444807845311858</v>
+        <v>0.97490411729163162</v>
       </c>
       <c r="B361">
-        <v>0.85416694552307004</v>
+        <v>0.96396967799426481</v>
       </c>
       <c r="C361">
-        <v>0.86309197972090312</v>
+        <v>0.97291389713095044</v>
       </c>
       <c r="D361">
-        <v>0.10555192154688139</v>
+        <v>0.025095882708368232</v>
       </c>
       <c r="E361">
-        <v>0.14583305447693012</v>
+        <v>0.036030322005735263</v>
       </c>
       <c r="F361">
-        <v>0.13690802027909682</v>
+        <v>0.02708610286904951</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>0.024952181757106277</v>
+        <v>0.00553147202812675</v>
       </c>
       <c r="B362">
-        <v>0.020714887066954943</v>
+        <v>0.005509084471603266</v>
       </c>
       <c r="C362">
-        <v>0.015027968012561732</v>
+        <v>0.0031724501033217585</v>
       </c>
       <c r="D362">
-        <v>0.024952181757106277</v>
+        <v>0.00553147202812675</v>
       </c>
       <c r="E362">
-        <v>0.020714887066954943</v>
+        <v>0.005509084471603266</v>
       </c>
       <c r="F362">
-        <v>0.015027968012561732</v>
+        <v>0.0031724501033217585</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>35.846487780507751</v>
+        <v>176.24677704856549</v>
       </c>
       <c r="B363">
-        <v>41.234448576148154</v>
+        <v>174.97819882106984</v>
       </c>
       <c r="C363">
-        <v>57.432380678442549</v>
+        <v>306.67587052425102</v>
       </c>
       <c r="D363">
-        <v>4.2301680299687883</v>
+        <v>4.5369266229241028</v>
       </c>
       <c r="E363">
-        <v>7.0400120457121744</v>
+        <v>6.5401651021062737</v>
       </c>
       <c r="F363">
-        <v>9.1102150446857983</v>
+        <v>8.5379129653414019</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1.204436296618452e-184</v>
+        <v>0</v>
       </c>
       <c r="B364">
-        <v>4.4385703471238216e-222</v>
+        <v>0</v>
       </c>
       <c r="C364">
         <v>0</v>
       </c>
       <c r="D364">
-        <v>2.5381615561922567e-05</v>
+        <v>5.8380771831892907e-06</v>
       </c>
       <c r="E364">
-        <v>3.4599067735902412e-12</v>
+        <v>6.7417946481538723e-11</v>
       </c>
       <c r="F364">
-        <v>4.0339261964218211e-19</v>
+        <v>1.7782320973850064e-17</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>0.84548647705878111</v>
+        <v>0.96406007580749353</v>
       </c>
       <c r="B365">
-        <v>0.81351983685041396</v>
+        <v>0.95316952565761492</v>
       </c>
       <c r="C365">
-        <v>0.83360384169913071</v>
+        <v>0.96669454352094408</v>
       </c>
       <c r="D365">
-        <v>0.056590320152543866</v>
+        <v>0.014251841224230124</v>
       </c>
       <c r="E365">
-        <v>0.10518594580427404</v>
+        <v>0.025230169669085326</v>
       </c>
       <c r="F365">
-        <v>0.10741988225732438</v>
+        <v>0.020866749259043138</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>0.94340967984745605</v>
+        <v>0.98574815877576971</v>
       </c>
       <c r="B366">
-        <v>0.89481405419572613</v>
+        <v>0.97476983033091469</v>
       </c>
       <c r="C366">
-        <v>0.89258011774267554</v>
+        <v>0.97913325074095681</v>
       </c>
       <c r="D366">
-        <v>0.15451352294121892</v>
+        <v>0.035939924192506342</v>
       </c>
       <c r="E366">
-        <v>0.18648016314958621</v>
+        <v>0.0468304743423852</v>
       </c>
       <c r="F366">
-        <v>0.16639615830086926</v>
+        <v>0.033305456479055882</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B367">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C367">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D367">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E367">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F367">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B368">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C368">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D368">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E368">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F368">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="369">
@@ -6872,162 +7084,162 @@
     </row>
     <row r="371">
       <c r="A371">
-        <v>0.77011145925013214</v>
+        <v>0.96028754501257052</v>
       </c>
       <c r="B371">
-        <v>0.76417877648384058</v>
+        <v>0.94579871686412531</v>
       </c>
       <c r="C371">
-        <v>0.70596620871312332</v>
+        <v>0.92976923907116737</v>
       </c>
       <c r="D371">
-        <v>0.22988854074986795</v>
+        <v>0.039712454987429452</v>
       </c>
       <c r="E371">
-        <v>0.2358212235161595</v>
+        <v>0.054201283135874856</v>
       </c>
       <c r="F371">
-        <v>0.29403379128687668</v>
+        <v>0.070230760928832639</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>0.038461659645187662</v>
+        <v>0.0077855575693224488</v>
       </c>
       <c r="B372">
-        <v>0.025649974123220388</v>
+        <v>0.0064337672396368372</v>
       </c>
       <c r="C372">
-        <v>0.017805284371649664</v>
+        <v>0.0048451841897716782</v>
       </c>
       <c r="D372">
-        <v>0.038461659645187662</v>
+        <v>0.0077855575693224488</v>
       </c>
       <c r="E372">
-        <v>0.025649974123220388</v>
+        <v>0.0064337672396368372</v>
       </c>
       <c r="F372">
-        <v>0.017805284371649664</v>
+        <v>0.0048451841897716782</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>20.02283485305837</v>
+        <v>123.34216739934031</v>
       </c>
       <c r="B373">
-        <v>29.792574948137879</v>
+        <v>147.00542957744804</v>
       </c>
       <c r="C373">
-        <v>39.649252097157905</v>
+        <v>191.89554053155229</v>
       </c>
       <c r="D373">
-        <v>5.9770832270528835</v>
+        <v>5.1007849641892111</v>
       </c>
       <c r="E373">
-        <v>9.1938191587755043</v>
+        <v>8.4245017137011509</v>
       </c>
       <c r="F373">
-        <v>16.513849773444218</v>
+        <v>14.494962044392818</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>7.778993246215056e-76</v>
+        <v>0</v>
       </c>
       <c r="B374">
-        <v>5.4551958759561456e-142</v>
+        <v>0</v>
       </c>
       <c r="C374">
-        <v>3.6673111283135352e-211</v>
+        <v>0</v>
       </c>
       <c r="D374">
-        <v>3.105116479343349e-09</v>
+        <v>3.5041128488217139e-07</v>
       </c>
       <c r="E374">
-        <v>1.9692764406680417e-19</v>
+        <v>4.6507928463203966e-17</v>
       </c>
       <c r="F374">
-        <v>1.1664762946115579e-54</v>
+        <v>1.0773803291054947e-46</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>0.69464132734569284</v>
+        <v>0.94502453566721378</v>
       </c>
       <c r="B375">
-        <v>0.71384795487388164</v>
+        <v>0.93318579240366528</v>
       </c>
       <c r="C375">
-        <v>0.67102837263114379</v>
+        <v>0.92027061409665634</v>
       </c>
       <c r="D375">
-        <v>0.15441840884542862</v>
+        <v>0.024449445642072694</v>
       </c>
       <c r="E375">
-        <v>0.18549040190620053</v>
+        <v>0.041588358675414779</v>
       </c>
       <c r="F375">
-        <v>0.2590959552048972</v>
+        <v>0.060732135954321566</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>0.84558159115457143</v>
+        <v>0.97555055435792726</v>
       </c>
       <c r="B376">
-        <v>0.81450959809379953</v>
+        <v>0.95841164132458534</v>
       </c>
       <c r="C376">
-        <v>0.74090404479510286</v>
+        <v>0.93926786404567841</v>
       </c>
       <c r="D376">
-        <v>0.30535867265430727</v>
+        <v>0.05497546433278621</v>
       </c>
       <c r="E376">
-        <v>0.28615204512611847</v>
+        <v>0.06681420759633494</v>
       </c>
       <c r="F376">
-        <v>0.32897162736885616</v>
+        <v>0.079729385903343719</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B377">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C377">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D377">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E377">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F377">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B378">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C378">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D378">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E378">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F378">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="379">
@@ -7052,162 +7264,162 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>0.41391811300827319</v>
+        <v>0.89689816536478695</v>
       </c>
       <c r="B381">
-        <v>0.38211806533370885</v>
+        <v>0.86279399827933501</v>
       </c>
       <c r="C381">
-        <v>0.4326287753166147</v>
+        <v>0.86562705470290857</v>
       </c>
       <c r="D381">
-        <v>0.58608188699172681</v>
+        <v>0.10310183463521297</v>
       </c>
       <c r="E381">
-        <v>0.61788193466629115</v>
+        <v>0.13720600172066488</v>
       </c>
       <c r="F381">
-        <v>0.5673712246833853</v>
+        <v>0.13437294529709148</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>0.044534572856510073</v>
+        <v>0.011661592595910665</v>
       </c>
       <c r="B382">
-        <v>0.029173231745295691</v>
+        <v>0.0095709439821502172</v>
       </c>
       <c r="C382">
-        <v>0.019264588078186397</v>
+        <v>0.0062636572333900258</v>
       </c>
       <c r="D382">
-        <v>0.044534572856510073</v>
+        <v>0.011661592595910665</v>
       </c>
       <c r="E382">
-        <v>0.029173231745295691</v>
+        <v>0.0095709439821502172</v>
       </c>
       <c r="F382">
-        <v>0.019264588078186397</v>
+        <v>0.0062636572333900258</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>9.2943097117359361</v>
+        <v>76.910435516268976</v>
       </c>
       <c r="B383">
-        <v>13.098242548850523</v>
+        <v>90.147220575989508</v>
       </c>
       <c r="C383">
-        <v>22.457203526011916</v>
+        <v>138.19834362718035</v>
       </c>
       <c r="D383">
-        <v>13.160155119935169</v>
+        <v>8.8411453056049467</v>
       </c>
       <c r="E383">
-        <v>21.179756156632433</v>
+        <v>14.33568120099268</v>
       </c>
       <c r="F383">
-        <v>29.45151084366184</v>
+        <v>21.452793518263125</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>8.2578283459716163e-20</v>
+        <v>0</v>
       </c>
       <c r="B384">
-        <v>1.9897912496273545e-36</v>
+        <v>0</v>
       </c>
       <c r="C384">
-        <v>1.382044684174793e-91</v>
+        <v>0</v>
       </c>
       <c r="D384">
-        <v>9.8552682061194386e-37</v>
+        <v>1.2813587525082078e-18</v>
       </c>
       <c r="E384">
-        <v>3.1271867723271419e-83</v>
+        <v>9.8931640306511977e-46</v>
       </c>
       <c r="F384">
-        <v>1.3610592054983349e-139</v>
+        <v>7.5667291638614761e-98</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>0.32653160606097842</v>
+        <v>0.87403647624511893</v>
       </c>
       <c r="B385">
-        <v>0.32487384685205212</v>
+        <v>0.84403087102187924</v>
       </c>
       <c r="C385">
-        <v>0.39482746833304228</v>
+        <v>0.85334761831853878</v>
       </c>
       <c r="D385">
-        <v>0.49869538004443204</v>
+        <v>0.080240145515544994</v>
       </c>
       <c r="E385">
-        <v>0.56063771618463443</v>
+        <v>0.11844287446320916</v>
       </c>
       <c r="F385">
-        <v>0.52956991769981288</v>
+        <v>0.12209350891272172</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>0.50130461995556796</v>
+        <v>0.91975985448445496</v>
       </c>
       <c r="B386">
-        <v>0.43936228381536557</v>
+        <v>0.88155712553679078</v>
       </c>
       <c r="C386">
-        <v>0.47043008230018712</v>
+        <v>0.87790649108727836</v>
       </c>
       <c r="D386">
-        <v>0.67346839393902158</v>
+        <v>0.12596352375488096</v>
       </c>
       <c r="E386">
-        <v>0.67512615314794788</v>
+        <v>0.1559691289781206</v>
       </c>
       <c r="F386">
-        <v>0.60517253166695772</v>
+        <v>0.14665238168146125</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B387">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C387">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D387">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E387">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F387">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B388">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C388">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D388">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E388">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F388">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="389">
@@ -7232,62 +7444,62 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>0.98231803966437836</v>
+        <v>0.9967678339851791</v>
       </c>
       <c r="B391">
-        <v>0.97413705335696643</v>
+        <v>0.99420341838979032</v>
       </c>
       <c r="C391">
-        <v>0.98570449476473843</v>
+        <v>0.99657311944449511</v>
       </c>
       <c r="D391">
-        <v>0.017681960335621662</v>
+        <v>0.0032321660148209143</v>
       </c>
       <c r="E391">
-        <v>0.025862946643033447</v>
+        <v>0.0057965816102097251</v>
       </c>
       <c r="F391">
-        <v>0.014295505235261696</v>
+        <v>0.0034268805555049261</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>0.012502071183168668</v>
+        <v>0.0023941932337866703</v>
       </c>
       <c r="B392">
-        <v>0.0097717507064417376</v>
+        <v>0.0021834336237294386</v>
       </c>
       <c r="C392">
-        <v>0.0047138479674575292</v>
+        <v>0.0011450861384614934</v>
       </c>
       <c r="D392">
-        <v>0.012502071183168668</v>
+        <v>0.0023941932337866703</v>
       </c>
       <c r="E392">
-        <v>0.0097717507064417376</v>
+        <v>0.0021834336237294386</v>
       </c>
       <c r="F392">
-        <v>0.0047138479674575292</v>
+        <v>0.0011450861384614934</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>78.572424142557836</v>
+        <v>416.32722869602514</v>
       </c>
       <c r="B393">
-        <v>99.689102047476041</v>
+        <v>455.33942849685985</v>
       </c>
       <c r="C393">
-        <v>209.10824905038038</v>
+        <v>870.30406357329912</v>
       </c>
       <c r="D393">
-        <v>1.4143224811762865</v>
+        <v>1.3500021507073183</v>
       </c>
       <c r="E393">
-        <v>2.646705531075825</v>
+        <v>2.6548009278655367</v>
       </c>
       <c r="F393">
-        <v>3.0326614973482373</v>
+        <v>2.9926836422185579</v>
       </c>
     </row>
     <row r="394">
@@ -7301,93 +7513,93 @@
         <v>0</v>
       </c>
       <c r="D394">
-        <v>0.15756255898866559</v>
+        <v>0.17707478391961778</v>
       </c>
       <c r="E394">
-        <v>0.0082491721363088886</v>
+        <v>0.0079600027105746259</v>
       </c>
       <c r="F394">
-        <v>0.0024833747782634441</v>
+        <v>0.0027785191686399689</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>0.95778625996541045</v>
+        <v>0.99207419536308927</v>
       </c>
       <c r="B395">
-        <v>0.95496275558729826</v>
+        <v>0.98992295838326971</v>
       </c>
       <c r="C395">
-        <v>0.97645490098320731</v>
+        <v>0.99432826282671827</v>
       </c>
       <c r="D395">
-        <v>-0.0068498193633462837</v>
+        <v>-0.0014614726072689418</v>
       </c>
       <c r="E395">
-        <v>0.0066886488733653229</v>
+        <v>0.0015161216036891096</v>
       </c>
       <c r="F395">
-        <v>0.0050459114537306071</v>
+        <v>0.0011820239377280618</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1.0068498193633464</v>
+        <v>1.001461472607269</v>
       </c>
       <c r="B396">
-        <v>0.9933113511266346</v>
+        <v>0.99848387839631092</v>
       </c>
       <c r="C396">
-        <v>0.99495408854626954</v>
+        <v>0.99881797606227196</v>
       </c>
       <c r="D396">
-        <v>0.042213740034589609</v>
+        <v>0.0079258046369107705</v>
       </c>
       <c r="E396">
-        <v>0.045037244412701571</v>
+        <v>0.010077041616730341</v>
       </c>
       <c r="F396">
-        <v>0.023545099016792782</v>
+        <v>0.0056717371732817904</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B397">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C397">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D397">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E397">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F397">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B398">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C398">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D398">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E398">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F398">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="399">
@@ -7412,162 +7624,162 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>0.83365238807721642</v>
+        <v>0.9739775850101553</v>
       </c>
       <c r="B401">
-        <v>0.87956610482548414</v>
+        <v>0.97109376085306365</v>
       </c>
       <c r="C401">
-        <v>0.87570052120552366</v>
+        <v>0.97021419780808582</v>
       </c>
       <c r="D401">
-        <v>0.16634761192278352</v>
+        <v>0.026022414989844766</v>
       </c>
       <c r="E401">
-        <v>0.12043389517451589</v>
+        <v>0.028906239146936463</v>
       </c>
       <c r="F401">
-        <v>0.12429947879447631</v>
+        <v>0.029785802191914207</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>0.032293624042988016</v>
+        <v>0.0058838812628366566</v>
       </c>
       <c r="B402">
-        <v>0.019109136922808308</v>
+        <v>0.004812538732206331</v>
       </c>
       <c r="C402">
-        <v>0.012906318149506999</v>
+        <v>0.0032554193383884942</v>
       </c>
       <c r="D402">
-        <v>0.032293624042988016</v>
+        <v>0.0058838812628366566</v>
       </c>
       <c r="E402">
-        <v>0.019109136922808308</v>
+        <v>0.004812538732206331</v>
       </c>
       <c r="F402">
-        <v>0.012906318149506999</v>
+        <v>0.0032554193383884942</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>25.814767242211367</v>
+        <v>165.53318150077598</v>
       </c>
       <c r="B403">
-        <v>46.028562586500207</v>
+        <v>201.78409253193919</v>
       </c>
       <c r="C403">
-        <v>67.850529567099969</v>
+        <v>298.0304830063348</v>
       </c>
       <c r="D403">
-        <v>5.1510976811195937</v>
+        <v>4.4226614758876348</v>
       </c>
       <c r="E403">
-        <v>6.3024246286481018</v>
+        <v>6.0064429099533214</v>
       </c>
       <c r="F403">
-        <v>9.6309014975912675</v>
+        <v>9.1496053490481657</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>2.8548634718986289e-114</v>
+        <v>0</v>
       </c>
       <c r="B404">
-        <v>1.8468288981244652e-254</v>
+        <v>0</v>
       </c>
       <c r="C404">
         <v>0</v>
       </c>
       <c r="D404">
-        <v>3.0895290924787375e-07</v>
+        <v>9.9505898194473991e-06</v>
       </c>
       <c r="E404">
-        <v>4.2993497190837179e-10</v>
+        <v>2.0268153495756915e-09</v>
       </c>
       <c r="F404">
-        <v>4.2466544343536366e-21</v>
+        <v>8.072504853076156e-20</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>0.77028528201158875</v>
+        <v>0.96244267130590011</v>
       </c>
       <c r="B405">
-        <v>0.84206982678006237</v>
+        <v>0.9616591348817668</v>
       </c>
       <c r="C405">
-        <v>0.85037552113715498</v>
+        <v>0.96383218915392554</v>
       </c>
       <c r="D405">
-        <v>0.10298050585715582</v>
+        <v>0.014487501285589552</v>
       </c>
       <c r="E405">
-        <v>0.082937617129094102</v>
+        <v>0.019471613175639581</v>
       </c>
       <c r="F405">
-        <v>0.098974478726107568</v>
+        <v>0.023403793537753959</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>0.8970194941428441</v>
+        <v>0.98551249871441049</v>
       </c>
       <c r="B406">
-        <v>0.91706238287090591</v>
+        <v>0.9805283868243605</v>
       </c>
       <c r="C406">
-        <v>0.90102552127389235</v>
+        <v>0.9765962064622461</v>
       </c>
       <c r="D406">
-        <v>0.22971471798841123</v>
+        <v>0.03755732869409998</v>
       </c>
       <c r="E406">
-        <v>0.15793017321993769</v>
+        <v>0.038340865118233342</v>
       </c>
       <c r="F406">
-        <v>0.14962447886284505</v>
+        <v>0.036167810846074455</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B407">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="C407">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="D407">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="E407">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="F407">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B408">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="C408">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="D408">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="E408">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="F408">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="409">
@@ -7592,66 +7804,66 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>0.72885358141892476</v>
+        <v>0.94025082904923951</v>
       </c>
       <c r="B411">
-        <v>0.27114641858107519</v>
+        <v>0.059749170950760468</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>0.013654475780157067</v>
+        <v>0.0033776284372995669</v>
       </c>
       <c r="B412">
-        <v>0.013654475780157067</v>
+        <v>0.0033776284372995669</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>53.37836421945309</v>
+        <v>278.37604002439514</v>
       </c>
       <c r="B413">
-        <v>19.857695230974016</v>
+        <v>17.689681402176454</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>6.5045705432449209e-302</v>
+        <v>0</v>
       </c>
       <c r="B414">
-        <v>8.5485929582883442e-75</v>
+        <v>5.0643856820144563e-68</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>0.70206053354421183</v>
+        <v>0.93362923850230417</v>
       </c>
       <c r="B415">
-        <v>0.24435337070636229</v>
+        <v>0.053127580403825175</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>0.75564662929363768</v>
+        <v>0.94687241959617485</v>
       </c>
       <c r="B416">
-        <v>0.29793946645578806</v>
+        <v>0.06637076149769576</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B417">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B418">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="419">
@@ -7664,66 +7876,66 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>0.41742651441127343</v>
+        <v>0.87199452948566392</v>
       </c>
       <c r="B421">
-        <v>0.58257348558872657</v>
+        <v>0.12800547051433597</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>0.015060751242977261</v>
+        <v>0.0046322555436118873</v>
       </c>
       <c r="B422">
-        <v>0.015060751242977261</v>
+        <v>0.0046322555436118873</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>27.716181462456394</v>
+        <v>188.24404683117885</v>
       </c>
       <c r="B423">
-        <v>38.681568813532934</v>
+        <v>27.633507976662024</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
-        <v>1.9134550726087129e-127</v>
+        <v>0</v>
       </c>
       <c r="B424">
-        <v>1.8715611252852765e-204</v>
+        <v>7.9554573481629621e-157</v>
       </c>
     </row>
     <row r="425">
       <c r="A425">
-        <v>0.38787404856936691</v>
+        <v>0.86291333536145398</v>
       </c>
       <c r="B425">
-        <v>0.55302101974682005</v>
+        <v>0.11892427639012608</v>
       </c>
     </row>
     <row r="426">
       <c r="A426">
-        <v>0.44697898025317995</v>
+        <v>0.88107572360987385</v>
       </c>
       <c r="B426">
-        <v>0.61212595143063309</v>
+        <v>0.13708666463854588</v>
       </c>
     </row>
     <row r="427">
       <c r="A427">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B427">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="428">
       <c r="A428">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B428">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="429">
@@ -7736,26 +7948,26 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>0.98313182437247271</v>
+        <v>0.99633292622397196</v>
       </c>
       <c r="B431">
-        <v>0.016868175627527373</v>
+        <v>0.0036670737760280806</v>
       </c>
     </row>
     <row r="432">
       <c r="A432">
-        <v>0.0039466111361481787</v>
+        <v>0.00086546116676514226</v>
       </c>
       <c r="B432">
-        <v>0.0039466111361481787</v>
+        <v>0.00086546116676514226</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>249.10785239713067</v>
+        <v>1151.2162122166528</v>
       </c>
       <c r="B433">
-        <v>4.2740911241613757</v>
+        <v>4.2371326604226534</v>
       </c>
     </row>
     <row r="434">
@@ -7763,39 +7975,39 @@
         <v>0</v>
       </c>
       <c r="B434">
-        <v>2.0929612091905006e-05</v>
+        <v>2.3035783492566939e-05</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>0.97538771593387863</v>
+        <v>0.99463625366600006</v>
       </c>
       <c r="B435">
-        <v>0.0091240671889332645</v>
+        <v>0.0019704012180561904</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>0.99087593281106678</v>
+        <v>0.99802959878194386</v>
       </c>
       <c r="B436">
-        <v>0.024612284066121481</v>
+        <v>0.0053637463339999709</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B437">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B438">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="439">
@@ -7808,26 +8020,26 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>0.87058807979732911</v>
+        <v>0.97153649997692637</v>
       </c>
       <c r="B441">
-        <v>0.12941192020267089</v>
+        <v>0.028463500023073705</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>0.010212689688463211</v>
+        <v>0.0023766416977592203</v>
       </c>
       <c r="B442">
-        <v>0.010212689688463211</v>
+        <v>0.0023766416977592203</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>85.245719428917042</v>
+        <v>408.78543067426801</v>
       </c>
       <c r="B443">
-        <v>12.671678485331967</v>
+        <v>11.976353040473064</v>
       </c>
     </row>
     <row r="444">
@@ -7835,39 +8047,39 @@
         <v>0</v>
       </c>
       <c r="B444">
-        <v>2.3614073020996399e-34</v>
+        <v>1.2808242021194933e-32</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>0.8505485639522592</v>
+        <v>0.96687726984209343</v>
       </c>
       <c r="B445">
-        <v>0.10937240435760093</v>
+        <v>0.023804269888240807</v>
       </c>
     </row>
     <row r="446">
       <c r="A446">
-        <v>0.89062759564239902</v>
+        <v>0.97619573011175931</v>
       </c>
       <c r="B446">
-        <v>0.14945143604774086</v>
+        <v>0.033122730157906607</v>
       </c>
     </row>
     <row r="447">
       <c r="A447">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
       <c r="B447">
-        <v>1054.0056657223797</v>
+        <v>5136.0011670881149</v>
       </c>
     </row>
     <row r="448">
       <c r="A448">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
       <c r="B448">
-        <v>1.9622172470106134</v>
+        <v>1.9604259822697643</v>
       </c>
     </row>
     <row r="449">
